--- a/data/salp/SALP_TEST_DATA.xlsx
+++ b/data/salp/SALP_TEST_DATA.xlsx
@@ -878,307 +878,307 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8482052242362497</v>
+        <v>0.3234242443237306</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06539036579751367</v>
+        <v>-0.7376069889279597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5680783374682855</v>
+        <v>0.08921316809624161</v>
       </c>
       <c r="E2" t="n">
-        <v>1.675923868346207</v>
+        <v>0.3174136109437511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6990926087443858</v>
+        <v>0.3504712114830094</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4369464002504267</v>
+        <v>-1.167423570426599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9555251148881043</v>
+        <v>-0.182480471395821</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4250431856272722</v>
+        <v>0.113958481307403</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.357865600172076</v>
+        <v>0.5032770252636615</v>
       </c>
       <c r="K2" t="n">
-        <v>0.571347667191891</v>
+        <v>3.107800260990216</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07572708981225384</v>
+        <v>-0.05048985938942052</v>
       </c>
       <c r="M2" t="n">
-        <v>1.983258207614546</v>
+        <v>0.2135090005185181</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4819340676845408</v>
+        <v>3.212138747191992</v>
       </c>
       <c r="O2" t="n">
-        <v>1.291023932356001</v>
+        <v>4.608809151726265</v>
       </c>
       <c r="P2" t="n">
-        <v>1.609808097256464</v>
+        <v>0.6794928209232127</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.012993800550527</v>
+        <v>0.3517055015236883</v>
       </c>
       <c r="R2" t="n">
-        <v>2.647768711831366</v>
+        <v>1.082940019889473</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1870594348408</v>
+        <v>1.130894255501529</v>
       </c>
       <c r="T2" t="n">
-        <v>3.400961680613202</v>
+        <v>0.902893184796173</v>
       </c>
       <c r="U2" t="n">
-        <v>2.169606329593742</v>
+        <v>0.6607994706237994</v>
       </c>
       <c r="V2" t="n">
-        <v>4.296696121838647</v>
+        <v>3.387522249450145</v>
       </c>
       <c r="W2" t="n">
-        <v>4.04079700688879</v>
+        <v>3.87271379972595</v>
       </c>
       <c r="X2" t="n">
-        <v>4.983221369127416</v>
+        <v>3.11600274244431</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07025368395774811</v>
+        <v>1.093642401205496</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.210795559024024</v>
+        <v>0.5284370435604024</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.06781353763983</v>
+        <v>3.03508422652562</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5879816782605571</v>
+        <v>5.096221324156213</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.937918858284048</v>
+        <v>3.556226711729912</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.352048431556946</v>
+        <v>5.419576235291749</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.047624727857848</v>
+        <v>1.795831367833972</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.574198676189901</v>
+        <v>3.392139615870043</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6855004597978399</v>
+        <v>0.1619081839612353</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8961134287869533</v>
+        <v>0.4260031276837178</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8651293300176403</v>
+        <v>0.4196340448152248</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2449995029508074</v>
+        <v>0.3718558214998376</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3131501358652866</v>
+        <v>0.6068402375013423</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8884547698982913</v>
+        <v>0.6815295335932443</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8318870053656963</v>
+        <v>0.06718051800988012</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.224553970022456</v>
+        <v>0.4660858052674883</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7115146068641661</v>
+        <v>0.5932113980188078</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.08600455397019546</v>
+        <v>0.7180565619977045</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6168610985560041</v>
+        <v>0.7190065984397717</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.8163749488778137</v>
+        <v>0.6040155588925894</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01136074928706421</v>
+        <v>0.6362085897630153</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.4430861675594809</v>
+        <v>0.347928846337863</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5190168786079056</v>
+        <v>0.6027635649558744</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6416701057492402</v>
+        <v>0.3222325915883459</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1572062797905022</v>
+        <v>0.8197653066875972</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.6145754616958354</v>
+        <v>0.04544583501048716</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.4128224508281959</v>
+        <v>0.3450886550312114</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.4917656424649113</v>
+        <v>0.3246704285315315</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.09961012374723921</v>
+        <v>0.3399302149460589</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8111778719485478</v>
+        <v>0.4656595986671996</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.603953180288636</v>
+        <v>0.2965018890868411</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.5394037773792778</v>
+        <v>0.1853066872635915</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.002271801879799695</v>
+        <v>0.9637316106027078</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.358610446542092</v>
+        <v>0.2478841649319475</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.2852901918044928</v>
+        <v>0.4713322265830274</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1748938386051579</v>
+        <v>0.6069673723654986</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.4989794525924073</v>
+        <v>0.3145040534876186</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.4631800492110337</v>
+        <v>0.4370000162371176</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.9571819010904147</v>
+        <v>0.3022822820511655</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.5727971508372665</v>
+        <v>0.00666032370419245</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.8336474929790687</v>
+        <v>0.2185864129103235</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.8449183091082431</v>
+        <v>0.0578559341167707</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05989905768855486</v>
+        <v>0.3767166937326817</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.1450482299172455</v>
+        <v>0.3964407339560844</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.8690449293321943</v>
+        <v>0.2578734357216849</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3377611133305891</v>
+        <v>0.4229396288298418</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01629448456597704</v>
+        <v>0.3793701627913607</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1097597910711336</v>
+        <v>0.7815929383449476</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.9667207820068675</v>
+        <v>0.7238891395217136</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1630423574081844</v>
+        <v>0.7952164936643225</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.6953647754123409</v>
+        <v>0.8868586853171083</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6982965998202411</v>
+        <v>0.7368096068787947</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.7722322673533817</v>
+        <v>0.6973484389824461</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.6568244077500823</v>
+        <v>0.4586417079219965</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.2698705179788675</v>
+        <v>0.1043155443885085</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.1756098830752727</v>
+        <v>0.3989068703321506</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.976262306752041</v>
+        <v>0.8147904395991473</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.3027892212366103</v>
+        <v>0.9999624807511589</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.6320049754339833</v>
+        <v>0.567738755579174</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.567603961494447</v>
+        <v>0.1154649132700297</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.9069693139359706</v>
+        <v>0.9217437714064274</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.7757818468316622</v>
+        <v>0.4673024568896175</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.3995289940323411</v>
+        <v>0.2038671044275784</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.7701979627758681</v>
+        <v>0.877622423234975</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.3739946299707442</v>
+        <v>0.784932184514558</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.6413910122689077</v>
+        <v>0.3691528616673738</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.8605149105638891</v>
+        <v>0.2201545776078641</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0330701797805637</v>
+        <v>0.5477170358571657</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.3939421001354493</v>
+        <v>0.1282538183001121</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.428252741230372</v>
+        <v>0.3265943576352063</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.2516355830667523</v>
+        <v>0.4505901939494625</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.7621830985343122</v>
+        <v>0.2536561538714617</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.2266323034884964</v>
+        <v>0.5528878256732096</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.8906998325929324</v>
+        <v>0.03767789674902111</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.3191465776829747</v>
+        <v>0.448330855886046</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.8680960685116418</v>
+        <v>0.1961959567741582</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.9636462290462412</v>
+        <v>0.4337462907364097</v>
       </c>
     </row>
     <row r="3">
@@ -1186,307 +1186,307 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.734635769687898</v>
+        <v>-2.818282786826547</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2399333416437256</v>
+        <v>-1.704660317837249</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.563283207344934</v>
+        <v>0.7338174469940675</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.317002692274571</v>
+        <v>0.4498517763814591</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2399963102220644</v>
+        <v>0.2708989747623806</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1255316866468004</v>
+        <v>-0.02685078432414352</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.326370432482428</v>
+        <v>0.3574322461105828</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8411210473310718</v>
+        <v>0.4402941459724035</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.9743600708218578</v>
+        <v>-1.391231786908681</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.25784651889004</v>
+        <v>-0.8637879641707265</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7565337854065588</v>
+        <v>0.6052351858044487</v>
       </c>
       <c r="M3" t="n">
-        <v>1.015579989550782</v>
+        <v>-0.1107460419059794</v>
       </c>
       <c r="N3" t="n">
-        <v>1.201209535901714</v>
+        <v>0.3060923444268382</v>
       </c>
       <c r="O3" t="n">
-        <v>1.438949252686745</v>
+        <v>2.102869922015614</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8279935947457204</v>
+        <v>2.440635475827965</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.781459866525675</v>
+        <v>1.487854320886467</v>
       </c>
       <c r="R3" t="n">
-        <v>2.53420868850815</v>
+        <v>0.5795798831022158</v>
       </c>
       <c r="S3" t="n">
-        <v>2.125982803967857</v>
+        <v>1.378109081255441</v>
       </c>
       <c r="T3" t="n">
-        <v>2.467728443921938</v>
+        <v>2.142227500858125</v>
       </c>
       <c r="U3" t="n">
-        <v>3.862888341090624</v>
+        <v>1.5934191816688</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.1812968973598405</v>
+        <v>2.59089080943972</v>
       </c>
       <c r="W3" t="n">
-        <v>2.229153656795752</v>
+        <v>3.309342195046124</v>
       </c>
       <c r="X3" t="n">
-        <v>2.163454207609338</v>
+        <v>3.048757522373303</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.184192561074264</v>
+        <v>4.177031183654441</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.603210998361646</v>
+        <v>3.037905335719838</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.957999581857065</v>
+        <v>-1.166629124128368</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9302680329099453</v>
+        <v>0.1685644380154798</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2553643991557422</v>
+        <v>2.609211102172183</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.326076908811883</v>
+        <v>2.222525848162539</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.372578041450298</v>
+        <v>1.033993184075128</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.9901074059462203</v>
+        <v>5.194277194567963</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4009080334443278</v>
+        <v>0.3848021547034234</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6660751794285732</v>
+        <v>0.3050288379045925</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2490547606288702</v>
+        <v>0.6042778925456487</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7300609820543315</v>
+        <v>0.5429939222279813</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6555244016519928</v>
+        <v>0.911617136653795</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6761189428345458</v>
+        <v>0.6363840290865634</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.8515273450117974</v>
+        <v>0.4991438170195059</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7857587841308964</v>
+        <v>0.2383851141939313</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.7682627815328062</v>
+        <v>0.5541817428178928</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8734388419773883</v>
+        <v>0.7843334121377213</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6415070820619775</v>
+        <v>0.5078805835419276</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.348976628098288</v>
+        <v>0.5581398366481615</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.745422825138512</v>
+        <v>0.8743697730046047</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.661314316501047</v>
+        <v>0.9647776524202744</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3953802620866806</v>
+        <v>0.9952844152045242</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.4616955973753001</v>
+        <v>0.7524099124846556</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2050664205768609</v>
+        <v>0.2720754090356091</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.8455990395002445</v>
+        <v>0.9992428778728457</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.396927431913744</v>
+        <v>0.440017308375293</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.06340562031600383</v>
+        <v>0.1465753045008463</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.7614059148651018</v>
+        <v>0.641065395926172</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.6298925388390524</v>
+        <v>0.9714213015139076</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8390381450227559</v>
+        <v>0.9596762882227429</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.8795300276894873</v>
+        <v>0.3811333646902459</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.4784639956554715</v>
+        <v>0.4823958657195327</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.9700292063876511</v>
+        <v>0.9853591973268412</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.2822585479085685</v>
+        <v>0.01885518812632503</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.4694864674774618</v>
+        <v>0.945103700926944</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.04159329240072873</v>
+        <v>0.7872361274911812</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.7301519359322941</v>
+        <v>0.0824815430272211</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.3854511457451431</v>
+        <v>0.8556082724334175</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.01264783590787455</v>
+        <v>0.183593936539911</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.6772433686340954</v>
+        <v>0.1539619985067672</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.5694735774261473</v>
+        <v>0.6944760581275911</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.8104552092753653</v>
+        <v>0.1810928881429826</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.4704747169618199</v>
+        <v>0.1611767412178426</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.7846791485978688</v>
+        <v>0.3518974189313455</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.7718637653525718</v>
+        <v>0.6474969782922397</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.6218441668556633</v>
+        <v>0.9551427801590371</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.256808805416878</v>
+        <v>0.3711302313177561</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.07034765396431109</v>
+        <v>0.7111348727851671</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.969832633539754</v>
+        <v>0.5241862758640515</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.505246640867103</v>
+        <v>0.7113100219392686</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.951405786309121</v>
+        <v>0.133708950261224</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1698549182689659</v>
+        <v>0.6193713473322484</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.5611361627589394</v>
+        <v>0.9339190892478032</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.2875029349707737</v>
+        <v>0.4520562008302221</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.5828771928630075</v>
+        <v>0.2544037278764766</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.5761569291289358</v>
+        <v>0.6546184448424992</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.6110166027920755</v>
+        <v>0.04443887485121489</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.2416536388467891</v>
+        <v>0.591219068954184</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.8860391709030849</v>
+        <v>0.9570819220904423</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.1257618340447945</v>
+        <v>0.7781817006898424</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.7865457002582006</v>
+        <v>0.3469965645057546</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.7293352985599548</v>
+        <v>0.6127126571615367</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.2609589602301824</v>
+        <v>0.2212860274937088</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.7532397692008252</v>
+        <v>0.0697549465396895</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.965133045348478</v>
+        <v>0.1929548508510167</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.1529583434071653</v>
+        <v>0.5411171226114353</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.4573908737989767</v>
+        <v>0.8865368210632937</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.198787167767275</v>
+        <v>0.9800414800075017</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.8780912957033938</v>
+        <v>0.3434594208118529</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01589741124821498</v>
+        <v>0.8602362428192046</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.5817708535925067</v>
+        <v>0.1619198263447233</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.2051864922745485</v>
+        <v>0.1998030190546369</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.2977249175502928</v>
+        <v>0.2150783548369527</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.6261344013196227</v>
+        <v>0.8428670773686388</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.541595467968885</v>
+        <v>0.9506365830632251</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.5215083600723582</v>
+        <v>0.323722416360147</v>
       </c>
     </row>
     <row r="4">
@@ -1494,307 +1494,307 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.605486702202926</v>
+        <v>1.697858160267418</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1347067556138048</v>
+        <v>-0.7079257768463953</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.252921101783591</v>
+        <v>1.691066048028702</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4450981566030429</v>
+        <v>1.179055846103369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3234527933366355</v>
+        <v>1.540669563260885</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1761783046782373</v>
+        <v>-0.1242429119471335</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1345016103649933</v>
+        <v>1.130764332589304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8087555176898864</v>
+        <v>0.8868479351229647</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09032198208482911</v>
+        <v>-0.8997815851348782</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6667199406665543</v>
+        <v>-1.060402741864392</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.463175568414339</v>
+        <v>0.09671380814499195</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.09931059176669163</v>
+        <v>3.001252201849056</v>
       </c>
       <c r="N4" t="n">
-        <v>2.958657392087944</v>
+        <v>1.380009966930536</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.3937562939765169</v>
+        <v>6.062619188951579</v>
       </c>
       <c r="P4" t="n">
-        <v>3.336972783477152</v>
+        <v>4.976844112541441</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.36707978028896</v>
+        <v>3.905234230588442</v>
       </c>
       <c r="R4" t="n">
-        <v>1.390658829622974</v>
+        <v>3.237674755658737</v>
       </c>
       <c r="S4" t="n">
-        <v>2.513979751412972</v>
+        <v>5.177274228092481</v>
       </c>
       <c r="T4" t="n">
-        <v>4.08589625276917</v>
+        <v>1.969962526314895</v>
       </c>
       <c r="U4" t="n">
-        <v>3.258783327809593</v>
+        <v>4.301702092239056</v>
       </c>
       <c r="V4" t="n">
-        <v>4.491723823747787</v>
+        <v>1.302767520362215</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2891373865806376</v>
+        <v>3.6584229494406</v>
       </c>
       <c r="X4" t="n">
-        <v>2.765928770636602</v>
+        <v>1.074081999399479</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.340715948714237</v>
+        <v>2.706170597293828</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.359621256704632</v>
+        <v>4.675775876634255</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.287829272181812</v>
+        <v>-0.5760783940957588</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.118608434343849</v>
+        <v>2.126135993574671</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.057867042369435</v>
+        <v>2.193548388432899</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.434857956286558</v>
+        <v>-0.382748560013079</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.5763004494037594</v>
+        <v>1.328711913799245</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.597642776042825</v>
+        <v>0.538897800898319</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.3055960723666624</v>
+        <v>0.8496991776099868</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6654458109951334</v>
+        <v>0.3988868958592857</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1041735124001262</v>
+        <v>0.7285851274361836</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.8538492108585827</v>
+        <v>0.4934511386305935</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.8573939294502377</v>
+        <v>0.8417725677642139</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.258775150002624</v>
+        <v>0.3877174085631999</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.4864986457429826</v>
+        <v>0.5084271862978496</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1890830329646696</v>
+        <v>0.5002447818156457</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2132516186633969</v>
+        <v>0.06448764897151682</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.707107902765205</v>
+        <v>0.8897971406341368</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.8784100990646563</v>
+        <v>0.8916886686163962</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.6895688532097342</v>
+        <v>0.9790267980703987</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3753854222225638</v>
+        <v>0.6985095171315283</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.008891311242740341</v>
+        <v>0.1244821491251484</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.7770443658049827</v>
+        <v>0.8719948613325904</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9538618922848094</v>
+        <v>0.05316494263586191</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.7101622548518941</v>
+        <v>0.9696560648005067</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.951087671198659</v>
+        <v>0.6254421752415604</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.6886440201165054</v>
+        <v>0.0507777515876604</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0254773054719335</v>
+        <v>0.6692246730606178</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9843841298675834</v>
+        <v>0.8609432400988716</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.5958680771068796</v>
+        <v>0.8069303307206662</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.4572164360937108</v>
+        <v>0.2335668336558119</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9094361379188978</v>
+        <v>0.5825257142155326</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.7818768807168541</v>
+        <v>0.5688654238859103</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2969826553206615</v>
+        <v>0.6494953908192344</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.6688018291224953</v>
+        <v>0.8407413617303044</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.3496402527406453</v>
+        <v>0.5374186973264139</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.3313644586859259</v>
+        <v>0.440332902160864</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.07812094967218519</v>
+        <v>0.8782462722151957</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.03390831689611506</v>
+        <v>0.01906937062970759</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.03203179293033076</v>
+        <v>0.4202281806757657</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.6936151868089508</v>
+        <v>0.113962747361585</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.3517374164869069</v>
+        <v>0.3390076764281188</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.07408715173448477</v>
+        <v>0.574783131987696</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7207635940915156</v>
+        <v>0.6579208844984868</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.787420740026423</v>
+        <v>0.001655215773931795</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.6004600860329702</v>
+        <v>0.8176798650396425</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.1517229061542177</v>
+        <v>0.3066482390068447</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.6912397802338111</v>
+        <v>0.8584627007427489</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.1900612590806524</v>
+        <v>0.6222105357234218</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.7073786032087931</v>
+        <v>0.8287021750910929</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8103962301802575</v>
+        <v>0.8873985437033811</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.05273044414615036</v>
+        <v>0.7038960172603479</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.9669046587257546</v>
+        <v>0.08997007502522703</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9606357669078154</v>
+        <v>0.8974544653965308</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.5841856715392526</v>
+        <v>0.9271432118388854</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.838762352810416</v>
+        <v>0.9066298150182914</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.06171258323256379</v>
+        <v>0.04472987078218826</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.3579202920567742</v>
+        <v>0.4305904426167249</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.800878694565671</v>
+        <v>0.5181520124403192</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.6363001700379864</v>
+        <v>0.8797427379075674</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.3616888595673561</v>
+        <v>0.6882474309980919</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.06714714644581232</v>
+        <v>0.8511712957477874</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.4664393097165579</v>
+        <v>0.783633149468018</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.05806337043681675</v>
+        <v>0.3741869469799399</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.7453460034760619</v>
+        <v>0.8710708410550124</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3661119785077367</v>
+        <v>0.8543615496907951</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.3568528354309564</v>
+        <v>0.01136135249383863</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.5971466850034166</v>
+        <v>0.2844034053233592</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.7075001052233888</v>
+        <v>0.8798464718400457</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8991160511573452</v>
+        <v>0.8431290016340175</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5026944972869591</v>
+        <v>0.8067443788380501</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.5774008111119776</v>
+        <v>0.908144268581522</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.3548178602223786</v>
+        <v>0.313148962980472</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.997413059228593</v>
+        <v>0.07840009008975435</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.7995878144412615</v>
+        <v>0.03831349754550983</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.7299442822860661</v>
+        <v>0.1501485251678538</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.6122055680864764</v>
+        <v>0.05065320560574982</v>
       </c>
     </row>
     <row r="5">
@@ -1802,307 +1802,307 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3202642685793169</v>
+        <v>-0.2299068091680028</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2549359119503796</v>
+        <v>0.8779912108104335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7016171907299414</v>
+        <v>-0.4105322314976809</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2554360794109513</v>
+        <v>1.400133518194897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3627066029732754</v>
+        <v>-0.5366052464759274</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5797274249210917</v>
+        <v>0.4552419487891854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1875555681314715</v>
+        <v>0.2861075338390516</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9052180247845385</v>
+        <v>0.219314845400581</v>
       </c>
       <c r="J5" t="n">
-        <v>0.603356248471824</v>
+        <v>-1.38027750453673</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2899386514358049</v>
+        <v>-0.108093242570049</v>
       </c>
       <c r="L5" t="n">
-        <v>1.101161978151934</v>
+        <v>0.9151156951709557</v>
       </c>
       <c r="M5" t="n">
-        <v>1.677228965043342</v>
+        <v>2.240948064042839</v>
       </c>
       <c r="N5" t="n">
-        <v>1.498754708276702</v>
+        <v>5.061087372134787</v>
       </c>
       <c r="O5" t="n">
-        <v>1.248220047611002</v>
+        <v>-0.5475332293147162</v>
       </c>
       <c r="P5" t="n">
-        <v>4.746601547821878</v>
+        <v>-0.5353527317883</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.222113939215049</v>
+        <v>2.355162627468749</v>
       </c>
       <c r="R5" t="n">
-        <v>3.087195250806332</v>
+        <v>5.144501532800316</v>
       </c>
       <c r="S5" t="n">
-        <v>1.763111392158164</v>
+        <v>2.086083244754216</v>
       </c>
       <c r="T5" t="n">
-        <v>4.044458901473656</v>
+        <v>0.5216761910847398</v>
       </c>
       <c r="U5" t="n">
-        <v>1.008204664712976</v>
+        <v>1.386141378732797</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3621715015125048</v>
+        <v>2.91373082600806</v>
       </c>
       <c r="W5" t="n">
-        <v>1.502494642856006</v>
+        <v>3.844878686533756</v>
       </c>
       <c r="X5" t="n">
-        <v>1.037894800599167</v>
+        <v>3.524940566406459</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.923238367727213</v>
+        <v>0.9733729604929344</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.351699997297503</v>
+        <v>0.01722306163706702</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.380833762312133</v>
+        <v>1.400532257982016</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.040491125256448</v>
+        <v>2.088801216684151</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.057566946182552</v>
+        <v>3.382988330693945</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.17598466938055</v>
+        <v>4.193801521090526</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.215716233998578</v>
+        <v>2.837231073506742</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.467778778662063</v>
+        <v>5.378410291059196</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5311990826479557</v>
+        <v>0.7449275200946169</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1127203618395904</v>
+        <v>0.4132398527802886</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.710261400849584</v>
+        <v>0.3042983849047023</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.2021177826023561</v>
+        <v>0.257251363767349</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2179012653845595</v>
+        <v>0.1966290732022394</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1216920161981859</v>
+        <v>0.7851574246675009</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.5571437069128239</v>
+        <v>0.5276843534149697</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.921864756565265</v>
+        <v>0.3579678246671478</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1386746427953944</v>
+        <v>0.05646948329110624</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7714498665548771</v>
+        <v>0.7800237978856837</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.8410943946872083</v>
+        <v>0.59216664601264</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.7166762745277855</v>
+        <v>0.1857749254396471</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5223960067923662</v>
+        <v>0.2845331687578883</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.5912552189230492</v>
+        <v>0.6304801829922744</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.5952278068162303</v>
+        <v>0.6767771485341899</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.9831958815856072</v>
+        <v>0.8138347796717905</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.7720889669678327</v>
+        <v>0.2386015798174583</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.2177674207721693</v>
+        <v>0.8707176977215114</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3650252755401195</v>
+        <v>0.9090562691877146</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.7334232036914333</v>
+        <v>0.8823282391456559</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.6852620544510556</v>
+        <v>0.5757032911975736</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.8018807170126095</v>
+        <v>0.81463900350142</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.06440490844273683</v>
+        <v>0.8242030575504017</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.5310712761348962</v>
+        <v>0.1234510179935795</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.9047902532890474</v>
+        <v>0.09149277857954308</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.08240298360440224</v>
+        <v>0.849144491745832</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.857842150771751</v>
+        <v>0.08673867502629029</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.6912889393198102</v>
+        <v>0.3523048338808353</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2108338124304278</v>
+        <v>0.03465890755083056</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.4203820371752971</v>
+        <v>0.4455743128001309</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.5223706619149321</v>
+        <v>0.1260744731243463</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.2545196236890487</v>
+        <v>0.9327673687876848</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.2119776976089435</v>
+        <v>0.01964882569987114</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.1424920299899699</v>
+        <v>0.04414381123409039</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1815211968146768</v>
+        <v>0.3608806418955548</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.5167867504298529</v>
+        <v>0.1486784802175063</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.8420449716379488</v>
+        <v>0.4410836960718592</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.7690347482297046</v>
+        <v>0.4757498860524647</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.2597847688803201</v>
+        <v>0.7317766365502644</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.4669818221232612</v>
+        <v>0.7703208485365426</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.1288244146391311</v>
+        <v>0.04973034628121897</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.6403145497768362</v>
+        <v>0.1281660505795289</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1970425797294905</v>
+        <v>0.2835118863338506</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.6547943916850351</v>
+        <v>0.2213079757329722</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.9967150919117823</v>
+        <v>0.148816945366443</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.3626881182772402</v>
+        <v>0.4174367555812607</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.04321307809633024</v>
+        <v>0.5583615240272726</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.8146674433898985</v>
+        <v>0.9048185140035316</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.4189945297890796</v>
+        <v>0.9210147543440671</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.6540020335445531</v>
+        <v>0.9770340043441786</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.6570706892701373</v>
+        <v>0.2767515903526442</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.4220260692831219</v>
+        <v>0.722486010672698</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.99236037415065</v>
+        <v>0.4908651440286473</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.7243043336009356</v>
+        <v>0.4397344457178446</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.8442199939548749</v>
+        <v>0.8714982263447761</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.4569954032707209</v>
+        <v>0.7812485372293869</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.3608562833101903</v>
+        <v>0.006780829862629512</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.9054934888248627</v>
+        <v>0.556897782581615</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.9003026175925015</v>
+        <v>0.2987413341565626</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.2257573109324548</v>
+        <v>0.9377502748188713</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.6661089034395803</v>
+        <v>0.794663893846703</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.7599588721512528</v>
+        <v>0.8623461309899444</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.02920743954955851</v>
+        <v>0.6680101365056251</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.2927125972065874</v>
+        <v>0.4439184192644023</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.5028747728873185</v>
+        <v>0.205613638218889</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.883109325248701</v>
+        <v>0.552922509337485</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.7344952641264557</v>
+        <v>0.07706577949798976</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.921675198242956</v>
+        <v>0.5713515634925834</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.8954638377606587</v>
+        <v>0.6128985323973816</v>
       </c>
     </row>
     <row r="6">
@@ -2110,307 +2110,307 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.407912653194265</v>
+        <v>0.4937524897283566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4723290340192499</v>
+        <v>-1.785762395386876</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3952420445380184</v>
+        <v>1.875969726224182</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1248237097986397</v>
+        <v>0.8636993082744009</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2685535351668942</v>
+        <v>1.389726196816067</v>
       </c>
       <c r="G6" t="n">
-        <v>1.074264486989806</v>
+        <v>-0.3927340331864043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6353383453944388</v>
+        <v>1.191622736768199</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8996100808921837</v>
+        <v>-1.932138122286017</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.08617019248287383</v>
+        <v>0.9315278074979345</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2216334033905534</v>
+        <v>0.4067139991242439</v>
       </c>
       <c r="L6" t="n">
-        <v>1.674061531115617</v>
+        <v>-0.5795932959014327</v>
       </c>
       <c r="M6" t="n">
-        <v>5.062188717609589</v>
+        <v>1.057968936382017</v>
       </c>
       <c r="N6" t="n">
-        <v>1.503173733620885</v>
+        <v>2.801839771391548</v>
       </c>
       <c r="O6" t="n">
-        <v>2.784971720958056</v>
+        <v>5.995643165960958</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04393789609725562</v>
+        <v>4.303425872295168</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1352633368750739</v>
+        <v>3.493420792686858</v>
       </c>
       <c r="R6" t="n">
-        <v>4.179918414581151</v>
+        <v>4.305111561404901</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09731506786761202</v>
+        <v>4.122151398305828</v>
       </c>
       <c r="T6" t="n">
-        <v>1.896405363223427</v>
+        <v>5.270770333338598</v>
       </c>
       <c r="U6" t="n">
-        <v>5.851845468372384</v>
+        <v>3.871773382236382</v>
       </c>
       <c r="V6" t="n">
-        <v>1.511505588421725</v>
+        <v>-0.3869416653464745</v>
       </c>
       <c r="W6" t="n">
-        <v>2.046233067862545</v>
+        <v>5.765008594018152</v>
       </c>
       <c r="X6" t="n">
-        <v>4.321197106741627</v>
+        <v>4.288019318066842</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.092454371373059</v>
+        <v>1.065338134904776</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.984268765040135</v>
+        <v>-1.855709242395001</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6334709167505997</v>
+        <v>0.9883949415995243</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.2362894340355</v>
+        <v>5.293633710197338</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2745546321327971</v>
+        <v>1.544333251503222</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.541691064289009</v>
+        <v>3.87094105601924</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.290585314858933</v>
+        <v>0.08165201505810504</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.210145262926867</v>
+        <v>1.120936206766695</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.4643094728084369</v>
+        <v>0.3217338939861111</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4213932080749417</v>
+        <v>0.9933085845693949</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6741814562807513</v>
+        <v>0.8777276009508815</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.04512166751001789</v>
+        <v>0.6503385944449459</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.434360700559726</v>
+        <v>0.2331531167066051</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5568948792167631</v>
+        <v>0.7860981772810707</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9233083662086947</v>
+        <v>0.05915827257775785</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3400415738235518</v>
+        <v>0.5772473120237145</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.2822397435183038</v>
+        <v>0.5641847360123083</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7358919658330317</v>
+        <v>0.8485482935527585</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5570525245954125</v>
+        <v>0.5128409346697999</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5899975047293295</v>
+        <v>0.7333939953882613</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9345758648803201</v>
+        <v>0.4979479223616521</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.5216741821571256</v>
+        <v>0.07552760734967812</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.3386396114650018</v>
+        <v>0.9137779808673735</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.688047982243716</v>
+        <v>0.7950424948532819</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.5094053036816438</v>
+        <v>0.5902904675097901</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.6413487438121086</v>
+        <v>0.1731834562964057</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.6487091330440711</v>
+        <v>0.04417309358745392</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.5509487000811042</v>
+        <v>0.2058602701043161</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.06790521196490829</v>
+        <v>0.2019444479547454</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.3334030365164761</v>
+        <v>0.3243673963158071</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.3137754479304149</v>
+        <v>0.8138190316703707</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.3618166161744707</v>
+        <v>0.3449599614472398</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.03769391747906414</v>
+        <v>0.09190928240856311</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.8517752824138589</v>
+        <v>0.1462825645371935</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.0344698843088117</v>
+        <v>0.3489230154127181</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.6454876974508681</v>
+        <v>0.5529540131765384</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.939341958943553</v>
+        <v>0.1982042518685165</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.7989763863418826</v>
+        <v>0.1694577619478043</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.4883047758777849</v>
+        <v>0.146562238737313</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.5615601408715445</v>
+        <v>0.5216236088943121</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.08617621893185101</v>
+        <v>0.00818866339651092</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.05776697654067564</v>
+        <v>0.05212292952380604</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.9219765684309927</v>
+        <v>0.3975050361124229</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.7151907855727546</v>
+        <v>0.5820350404617631</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.03271124344052245</v>
+        <v>0.5822052424808426</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.6761892253823896</v>
+        <v>0.2122092145458773</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.7983784527804132</v>
+        <v>0.6761880797471687</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.05583321421400256</v>
+        <v>0.4645647998207487</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.7138693758777086</v>
+        <v>0.7412373586188491</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.2603096248343623</v>
+        <v>0.2173270163129976</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.1282548791741512</v>
+        <v>0.7889906483667357</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.5246541890855414</v>
+        <v>0.04229201256130366</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.8638978469713039</v>
+        <v>0.8785565553866391</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.6973505443788474</v>
+        <v>0.1411865978580825</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.754679243586975</v>
+        <v>0.4411366188826445</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.03991179228624675</v>
+        <v>0.9312516570268107</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.2349290311519262</v>
+        <v>0.512250799809826</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.9357505004109197</v>
+        <v>0.1417405866963368</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.5263025516978036</v>
+        <v>0.1612372321459294</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.7381029001495436</v>
+        <v>0.02224422561448158</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.6597129403799183</v>
+        <v>0.3260414753032939</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.9691473498431102</v>
+        <v>0.7648651951281831</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.9181254084263679</v>
+        <v>0.9903575634293076</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.2081585525075572</v>
+        <v>0.330426213514433</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.9939136171757007</v>
+        <v>0.9418478414670948</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.5217729870540148</v>
+        <v>0.9750366437268791</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.9997739100940501</v>
+        <v>0.6080071513344711</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.6819697981730801</v>
+        <v>0.2671752110560948</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.6572695293257352</v>
+        <v>0.2537521557987834</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.834011056660828</v>
+        <v>0.05667819613438974</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.2399329957722849</v>
+        <v>0.1728771792063648</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.2461532667466262</v>
+        <v>0.9537120013064773</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.5988075621687454</v>
+        <v>0.8893325655214147</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.217652175878696</v>
+        <v>0.9352689733060028</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.9541731480165938</v>
+        <v>0.2700446734768578</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.8103064184672247</v>
+        <v>0.1489899600294787</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.09658002973629531</v>
+        <v>0.03127050391881037</v>
       </c>
     </row>
     <row r="7">
@@ -2418,307 +2418,307 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9829466059355771</v>
+        <v>-1.169296613782239</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2798896899304331</v>
+        <v>0.5762832748734674</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4607278731914065</v>
+        <v>-0.07651506625190374</v>
       </c>
       <c r="E7" t="n">
-        <v>2.915017976691529</v>
+        <v>1.15615436839978</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.290741552715285</v>
+        <v>-0.1665461416763688</v>
       </c>
       <c r="G7" t="n">
-        <v>2.108582909602487</v>
+        <v>-0.614306322245276</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1101550640797868</v>
+        <v>-0.6016388173559175</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.7397502107830837</v>
+        <v>1.341095171508728</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.35264562545267</v>
+        <v>-0.4941341390071072</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1163759411205414</v>
+        <v>-0.5558618589717466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4266295575835795</v>
+        <v>0.47396732904104</v>
       </c>
       <c r="M7" t="n">
-        <v>3.685045084480051</v>
+        <v>2.562376981549664</v>
       </c>
       <c r="N7" t="n">
-        <v>3.051210019934885</v>
+        <v>0.7426926366393141</v>
       </c>
       <c r="O7" t="n">
-        <v>1.355412693052782</v>
+        <v>3.876780781801258</v>
       </c>
       <c r="P7" t="n">
-        <v>4.361098633939174</v>
+        <v>4.258121623320517</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.306322634650749</v>
+        <v>1.749058260730038</v>
       </c>
       <c r="R7" t="n">
-        <v>3.383251098087607</v>
+        <v>1.978177180185416</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.5050958601678324</v>
+        <v>4.366009136459353</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.8495048144021178</v>
+        <v>3.57261087253156</v>
       </c>
       <c r="U7" t="n">
-        <v>2.157133519223173</v>
+        <v>-0.7392569405990406</v>
       </c>
       <c r="V7" t="n">
-        <v>6.134804517012761</v>
+        <v>2.909802874392956</v>
       </c>
       <c r="W7" t="n">
-        <v>2.591922746956989</v>
+        <v>1.522965449573056</v>
       </c>
       <c r="X7" t="n">
-        <v>1.259020975840734</v>
+        <v>3.622657879399774</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1390741114641041</v>
+        <v>3.453574611681683</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5405474186628956</v>
+        <v>2.714502304796104</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.631092943388746</v>
+        <v>1.482309519917778</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.5743360398506917</v>
+        <v>2.837019039078506</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.046422530332113</v>
+        <v>0.4036859578238475</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.583664240827164</v>
+        <v>-0.6957999756182495</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4698399066031948</v>
+        <v>1.170874460466887</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.760309562435238</v>
+        <v>0.5439136307210743</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1269224227371304</v>
+        <v>0.9992483588403879</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.002153787219172587</v>
+        <v>0.04524216638991518</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6311053205839524</v>
+        <v>0.7322510366798016</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3715495057801635</v>
+        <v>0.7591215846049204</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.04322078299778187</v>
+        <v>0.5626169467880091</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7329889590568182</v>
+        <v>0.3449972841394053</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5528089834250397</v>
+        <v>0.9232053436671803</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.8971509829134173</v>
+        <v>0.752670298438287</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5496588469877602</v>
+        <v>0.5679179985353954</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.3556955324204978</v>
+        <v>0.0847151559914594</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3093298870210331</v>
+        <v>0.1416962407958836</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5264026560603096</v>
+        <v>0.4057463465565136</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.665114317062923</v>
+        <v>0.513619620777801</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9700830511304739</v>
+        <v>0.1618985968051865</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2597962477741075</v>
+        <v>0.07562471171642127</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.8916858646045532</v>
+        <v>0.3413983113917596</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1915305121328394</v>
+        <v>0.24733812108909</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.298781617685977</v>
+        <v>0.866481200928882</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2204568267904417</v>
+        <v>0.7633808787445938</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3032641353598429</v>
+        <v>0.5294898372577171</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.9432064523378978</v>
+        <v>0.9943079758408724</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1255304012895573</v>
+        <v>0.8463440929381778</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.3193520353438365</v>
+        <v>0.6895980032042782</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.425708024990453</v>
+        <v>0.1864272192730075</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5066075869311768</v>
+        <v>0.3507408846511127</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.4090943624059202</v>
+        <v>0.9924731113674801</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.6386803157667302</v>
+        <v>0.6472854353992156</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.314785793436451</v>
+        <v>0.6307178594571854</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.8892917000031647</v>
+        <v>0.4337849913130658</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.6758078954711341</v>
+        <v>0.6803977798346353</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.8480368728772838</v>
+        <v>0.3852273763175009</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.7179106312247039</v>
+        <v>0.2690495093986325</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.8404286631463206</v>
+        <v>0.593829130708453</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01239911031298402</v>
+        <v>0.08574793679671433</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.7197856790508863</v>
+        <v>0.3199107447259738</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.3155388975225768</v>
+        <v>0.3942201113126366</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.6271946495897107</v>
+        <v>0.04155078730688821</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.3737308446598311</v>
+        <v>0.39873949960816</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.7060395588715439</v>
+        <v>0.6973340751796239</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.9780886665727098</v>
+        <v>0.02925669157956334</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1564358572805593</v>
+        <v>0.4250080249651799</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.952189984698948</v>
+        <v>0.1390085412065392</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.3637108686532153</v>
+        <v>0.6630183021254946</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.2947883517058156</v>
+        <v>0.3818323725076507</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.3444441893244773</v>
+        <v>0.335715140415871</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.4684211407021796</v>
+        <v>0.9181860023493215</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.3950819552935596</v>
+        <v>0.8934595687063889</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.1047997599450645</v>
+        <v>0.3703049707337034</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.5346702243861418</v>
+        <v>0.7297995111150412</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.3329534852220221</v>
+        <v>0.8506646758044815</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.2126318603297646</v>
+        <v>0.9046001571343107</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.7179402307930758</v>
+        <v>0.943022725169427</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.500335355748298</v>
+        <v>0.4331559746869348</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.451186127491757</v>
+        <v>0.8863538616234665</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.7364907299618302</v>
+        <v>0.9294001278084428</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.9260340901642586</v>
+        <v>0.8877138737159024</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.04952079970936718</v>
+        <v>0.7533120049766456</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.02288708730065403</v>
+        <v>0.5547971349352921</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.1592385455656996</v>
+        <v>0.3681342136991008</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.2175574440912791</v>
+        <v>0.06951093259090002</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.8326226327107228</v>
+        <v>0.7386557906864123</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.9319683609090916</v>
+        <v>0.553715233954726</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.3456941201947673</v>
+        <v>0.7872896341750921</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.8416708094988823</v>
+        <v>0.3251674652143555</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.5534982273489728</v>
+        <v>0.02763708682176669</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.9681152340148683</v>
+        <v>0.4912224777298755</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.8831619462346898</v>
+        <v>0.3366329620831156</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.9145722547119012</v>
+        <v>0.5981827290708254</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.5194410531571505</v>
+        <v>0.500856652432202</v>
       </c>
     </row>
     <row r="8">
@@ -2726,307 +2726,307 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.492432153530868</v>
+        <v>-2.812161458233018</v>
       </c>
       <c r="C8" t="n">
-        <v>2.121613722689962</v>
+        <v>0.7464706534704149</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6220440505833741</v>
+        <v>0.5982110908489684</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4665825703018293</v>
+        <v>-0.9874568142644542</v>
       </c>
       <c r="F8" t="n">
-        <v>1.568206429107277</v>
+        <v>-0.1508950255855359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2181651078366701</v>
+        <v>-0.3934744579361446</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6477926399734067</v>
+        <v>1.428235207989987</v>
       </c>
       <c r="I8" t="n">
-        <v>0.217347310864108</v>
+        <v>0.4121444543263419</v>
       </c>
       <c r="J8" t="n">
-        <v>1.720235106231866</v>
+        <v>-0.4686712908700338</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.219132891684175</v>
+        <v>-1.310112034280073</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2049753355056747</v>
+        <v>-1.346002383187024</v>
       </c>
       <c r="M8" t="n">
-        <v>4.792297569791051</v>
+        <v>4.17411078571382</v>
       </c>
       <c r="N8" t="n">
-        <v>4.735022985323942</v>
+        <v>3.383604285200144</v>
       </c>
       <c r="O8" t="n">
-        <v>0.152797259099158</v>
+        <v>3.023862498276023</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.07819202172256434</v>
+        <v>3.787428519759321</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.953527180463911</v>
+        <v>0.8312501840029896</v>
       </c>
       <c r="R8" t="n">
-        <v>3.005039054103441</v>
+        <v>1.038720769601917</v>
       </c>
       <c r="S8" t="n">
-        <v>2.702741427124552</v>
+        <v>3.653788066852935</v>
       </c>
       <c r="T8" t="n">
-        <v>2.485761741831933</v>
+        <v>0.3013048324667156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2693634674769033</v>
+        <v>0.9332777302493013</v>
       </c>
       <c r="V8" t="n">
-        <v>1.485019972848326</v>
+        <v>2.535038689170821</v>
       </c>
       <c r="W8" t="n">
-        <v>1.621880699481426</v>
+        <v>4.197017895881329</v>
       </c>
       <c r="X8" t="n">
-        <v>2.139516910677384</v>
+        <v>1.514823201600121</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5666525823931438</v>
+        <v>2.136100220853851</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.525718999919697</v>
+        <v>3.473466352215228</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.159438167378632</v>
+        <v>4.048307370881775</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.571892541984317</v>
+        <v>3.915103439413664</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.181808733501537</v>
+        <v>0.13136659120468</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.9974137713356369</v>
+        <v>2.923573598304971</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.370684060382207</v>
+        <v>1.637279441517523</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3290672702174385</v>
+        <v>2.386215237136881</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7302633421576482</v>
+        <v>0.5859293624498063</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.07498617783888695</v>
+        <v>0.322391566571071</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5802218555254537</v>
+        <v>0.3286074981495067</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.243541555441984</v>
+        <v>0.3702209003937473</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4494447388589794</v>
+        <v>0.7634633537979965</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1955221513320514</v>
+        <v>0.2616613708212284</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7109181571510291</v>
+        <v>0.9534304980835858</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9023096798936878</v>
+        <v>0.6549702705329703</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.135113416181924</v>
+        <v>0.2520868499091647</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.1320888607620596</v>
+        <v>0.7596870318437562</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.9459617667985883</v>
+        <v>0.5586580062698445</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.1325230182611005</v>
+        <v>0.6360099136240484</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9668757044675574</v>
+        <v>0.05458671350096012</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.09036674649003007</v>
+        <v>0.1256216823753187</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.06206505814549168</v>
+        <v>0.6200418859476439</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.3074008532980036</v>
+        <v>0.860539646607318</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.4476769565264377</v>
+        <v>0.2254260679314282</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.9487917172158098</v>
+        <v>0.6386387648161711</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.5427683323921775</v>
+        <v>0.9674505911375548</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.7893972674189688</v>
+        <v>0.2802648938112688</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.004560799540938687</v>
+        <v>0.0402932954118822</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.02306754581877213</v>
+        <v>0.7935496910050867</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.3306571539619179</v>
+        <v>0.2780640153408728</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0576675753535123</v>
+        <v>0.4850147874280429</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.5257756150114451</v>
+        <v>0.4908617033844005</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.8147092854859405</v>
+        <v>0.8389431703192575</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.9558215451946235</v>
+        <v>0.5910604150023082</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.633124490731776</v>
+        <v>0.3822181374240401</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.9886999064356821</v>
+        <v>0.157572227538365</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.02203311996153146</v>
+        <v>0.2020736892576627</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.9199125273423022</v>
+        <v>0.4639579337226429</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.1666020057021245</v>
+        <v>0.3156978046367143</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.4979141682681173</v>
+        <v>0.9675502574317842</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.6669856503553901</v>
+        <v>0.01086810541906424</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.7505451020339274</v>
+        <v>0.3040688650653898</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.2900416052682389</v>
+        <v>0.3274568232963144</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.9654683933717387</v>
+        <v>0.573438201305102</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.6275742062401323</v>
+        <v>0.845031426968327</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.3707683125661698</v>
+        <v>0.7540971266369945</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.561835616862421</v>
+        <v>0.5535885995325963</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.2420878451440569</v>
+        <v>0.642432998474985</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.3862403029622246</v>
+        <v>0.3406993571206428</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.6503448158616416</v>
+        <v>0.8463150734166088</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.7372812694207164</v>
+        <v>0.1375559898832799</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.8960824511337883</v>
+        <v>0.4662831408858129</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.2630012081250258</v>
+        <v>0.8846740031756128</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.8988563356755199</v>
+        <v>0.8017420692564275</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0005654768156602152</v>
+        <v>0.8075601767989046</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.2049186664637278</v>
+        <v>0.8133320724540284</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.7787340422356509</v>
+        <v>0.6569888104759409</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.4465011320682403</v>
+        <v>0.8222459332160028</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.1534397181858531</v>
+        <v>0.414022411946856</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.4999841744352602</v>
+        <v>0.7328094387994143</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.03331613115371346</v>
+        <v>0.5970374939888295</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.06780094068294373</v>
+        <v>0.1385045627203518</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.05232620115714826</v>
+        <v>0.7140540249348947</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.556355874799938</v>
+        <v>0.8803646865306189</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.5739902917207415</v>
+        <v>0.2004948531228929</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.8031846852642019</v>
+        <v>0.1268757141177839</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.3986488162506698</v>
+        <v>0.4333042167724676</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.9254693478565894</v>
+        <v>0.09629500502829114</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.5367441688994024</v>
+        <v>0.0420301060595063</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.3706823117963896</v>
+        <v>0.9749974381680914</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.4258590801192427</v>
+        <v>0.7719236962772309</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.1492134542187472</v>
+        <v>0.7882138085655475</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.596470040711561</v>
+        <v>0.7517688383024888</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.8200151055276015</v>
+        <v>0.2005552532810997</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.486665288816556</v>
+        <v>0.7406837814822258</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.1913604821807353</v>
+        <v>0.4457900283166755</v>
       </c>
     </row>
     <row r="9">
@@ -3034,307 +3034,307 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.191633922625854</v>
+        <v>1.256155231921371</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6807434465465925</v>
+        <v>-0.09649588591898084</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02260805681971161</v>
+        <v>0.01760219543860585</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.471273933683288</v>
+        <v>-0.3191428699528533</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3688449961838384</v>
+        <v>0.9638586769469957</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2341642932998689</v>
+        <v>-0.07690774783333332</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.849073563335263</v>
+        <v>0.2489396444432632</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.711700695414736</v>
+        <v>1.283099257882797</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.260518540209519</v>
+        <v>0.2105731925577487</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3291240812222813</v>
+        <v>0.4195671213824317</v>
       </c>
       <c r="L9" t="n">
-        <v>1.474697592976373</v>
+        <v>0.9732797812275905</v>
       </c>
       <c r="M9" t="n">
-        <v>1.472890701910658</v>
+        <v>0.1033524080080157</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3893529776190299</v>
+        <v>0.4226777538487204</v>
       </c>
       <c r="O9" t="n">
-        <v>1.274222753218109</v>
+        <v>0.1706782908461106</v>
       </c>
       <c r="P9" t="n">
-        <v>1.092616165727088</v>
+        <v>4.610507649686251</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.006050683738851</v>
+        <v>0.6938754507235858</v>
       </c>
       <c r="R9" t="n">
-        <v>2.835593795337213</v>
+        <v>0.6051083653124878</v>
       </c>
       <c r="S9" t="n">
-        <v>3.659146297665941</v>
+        <v>2.522272820799921</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4923109392702999</v>
+        <v>1.845415739119046</v>
       </c>
       <c r="U9" t="n">
-        <v>1.686432856118381</v>
+        <v>4.58685687661079</v>
       </c>
       <c r="V9" t="n">
-        <v>4.261795833076079</v>
+        <v>-0.2097731107243612</v>
       </c>
       <c r="W9" t="n">
-        <v>2.745225333897092</v>
+        <v>3.556114801468589</v>
       </c>
       <c r="X9" t="n">
-        <v>3.70427513463798</v>
+        <v>0.6737822107043219</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1.631249079387322</v>
+        <v>4.218993024303614</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.942784994955605</v>
+        <v>5.526608023385834</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.118308757488147</v>
+        <v>1.544327580982763</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1644768410884689</v>
+        <v>3.311453061207814</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7850433356222781</v>
+        <v>0.5092435453725531</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.19344949051245</v>
+        <v>4.712428607104302</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.321455921626861</v>
+        <v>3.444514677393331</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.477277033524356</v>
+        <v>2.981598783348875</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.4464788086258008</v>
+        <v>0.8966097592431707</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6935632462064301</v>
+        <v>0.4126507039606251</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9108143151910529</v>
+        <v>0.6033952251658926</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5938300856348826</v>
+        <v>0.2847007889260653</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.8852182521495745</v>
+        <v>0.9701238548449896</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7861949271053429</v>
+        <v>0.8799369253747243</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.01426867179723956</v>
+        <v>0.3468649132325058</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6185206868905382</v>
+        <v>0.4466679622484989</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.02589413770684201</v>
+        <v>0.2936876787924194</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.748199157008572</v>
+        <v>0.6543163547064375</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2075456334271475</v>
+        <v>0.4471788617717233</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.2628991604720814</v>
+        <v>0.244864832278739</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.007101981691885029</v>
+        <v>0.9411524172583977</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.4930776527845577</v>
+        <v>0.419392073909459</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.6449102688414368</v>
+        <v>0.9773640189582729</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.406587176817731</v>
+        <v>0.9128297842580309</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.8165414875735678</v>
+        <v>0.4461878153817851</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.1253332991585518</v>
+        <v>0.1933390366727754</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.5293612546228933</v>
+        <v>0.9992000456568092</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.2632704262114913</v>
+        <v>0.3246413144369786</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.710132665308143</v>
+        <v>0.163244454879081</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.625179773821169</v>
+        <v>0.3972337049164866</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.773856292191164</v>
+        <v>0.6321221669769227</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.4058026435862481</v>
+        <v>0.8331477056453693</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.3933209175225627</v>
+        <v>0.5905553822033488</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.7245886163892363</v>
+        <v>0.6742373754508155</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.1598406614480133</v>
+        <v>0.4133242687549824</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.2924220188685509</v>
+        <v>0.5304109148315662</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.6065497165238833</v>
+        <v>0.4248488459809409</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.01208893070154604</v>
+        <v>0.801481979779252</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.6032931142337384</v>
+        <v>0.02253840262503382</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.6377577549440199</v>
+        <v>0.8547984159242601</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.2975385012832166</v>
+        <v>0.7411576807079561</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.9385347568881109</v>
+        <v>0.745027766238751</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.6591697392974553</v>
+        <v>0.04583997204384682</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.7624648374724214</v>
+        <v>0.2770739878942923</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.8660596842954706</v>
+        <v>0.8112595287138868</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.292016793129801</v>
+        <v>0.6743651958376251</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.8634134026013818</v>
+        <v>0.6577754638410979</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.130124576471174</v>
+        <v>0.1046351523889549</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.5153471413566848</v>
+        <v>0.0407357302798832</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.4264044129618114</v>
+        <v>0.5055496871389688</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1203869937315609</v>
+        <v>0.07154980625736074</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.4963517227577497</v>
+        <v>0.7640649076098058</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.3236162365725841</v>
+        <v>0.3458492418333811</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.08962056735212831</v>
+        <v>0.1217322619997736</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.5588476917531985</v>
+        <v>0.7896501743955938</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.7483004031106711</v>
+        <v>0.9817500383304558</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.6356247411985111</v>
+        <v>0.7057797293428253</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.1496135225389411</v>
+        <v>0.9625679236747262</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.8028992600176487</v>
+        <v>0.3934080411930909</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.6996985752565519</v>
+        <v>0.5377784318361902</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.6207246980380601</v>
+        <v>0.06445972499705566</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.2581106865606431</v>
+        <v>0.5907124554126051</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.8555610620210196</v>
+        <v>0.3494960451578244</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.1493731035454066</v>
+        <v>0.2037898960865911</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.2477574168088342</v>
+        <v>0.6614076123316796</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.1565322753857513</v>
+        <v>0.8046336193722702</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.1302840170315884</v>
+        <v>0.100789453930477</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.6703322393037062</v>
+        <v>0.2571813261062675</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.06888126125160443</v>
+        <v>0.7778347220087833</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.5296382351106852</v>
+        <v>0.478621286865711</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.6081744950724812</v>
+        <v>0.06264187902809815</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.3118888879488104</v>
+        <v>0.3544839090146952</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.6426179736527268</v>
+        <v>0.2644540418487676</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.6710697391935325</v>
+        <v>0.4042066074738589</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.2545761751165541</v>
+        <v>0.03647533436263151</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.02788299752377366</v>
+        <v>0.3338551068508843</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.4983998633922243</v>
+        <v>0.1330343670523211</v>
       </c>
     </row>
     <row r="10">
@@ -3342,307 +3342,307 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.168768312101174</v>
+        <v>3.433173954807417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6721713338929537</v>
+        <v>1.95431054519517</v>
       </c>
       <c r="D10" t="n">
-        <v>1.861209622445353</v>
+        <v>-0.2556170709024476</v>
       </c>
       <c r="E10" t="n">
-        <v>1.736518072486564</v>
+        <v>-0.4954439147508222</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.082313918695214</v>
+        <v>0.8858896874398072</v>
       </c>
       <c r="G10" t="n">
-        <v>2.146253068436673</v>
+        <v>0.006676283733016049</v>
       </c>
       <c r="H10" t="n">
-        <v>1.73227037840893</v>
+        <v>1.299032443144972</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02671638992935091</v>
+        <v>-0.05332506407124994</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.9020387826291592</v>
+        <v>0.06951489629393823</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.3925078990299008</v>
+        <v>-0.155200834392116</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.05664628516213677</v>
+        <v>1.891143836936396</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6750929712811429</v>
+        <v>6.588833412967602</v>
       </c>
       <c r="N10" t="n">
-        <v>1.217963623508395</v>
+        <v>3.191317289398825</v>
       </c>
       <c r="O10" t="n">
-        <v>2.790412558294888</v>
+        <v>4.109027510549168</v>
       </c>
       <c r="P10" t="n">
-        <v>4.245349678151721</v>
+        <v>2.431025377480526</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.564688595802539</v>
+        <v>2.297476553600758</v>
       </c>
       <c r="R10" t="n">
-        <v>4.869059655450783</v>
+        <v>1.853384496861521</v>
       </c>
       <c r="S10" t="n">
-        <v>1.082528660621578</v>
+        <v>4.575276350486438</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.606696126048372</v>
+        <v>3.787374001911154</v>
       </c>
       <c r="U10" t="n">
-        <v>5.844809361455281</v>
+        <v>3.864324469087602</v>
       </c>
       <c r="V10" t="n">
-        <v>6.718028189798257</v>
+        <v>3.881131603324408</v>
       </c>
       <c r="W10" t="n">
-        <v>3.34254343227889</v>
+        <v>5.869843146285012</v>
       </c>
       <c r="X10" t="n">
-        <v>6.430616664200349</v>
+        <v>3.925827874846579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.393834311820538</v>
+        <v>4.722403474720579</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.177692072867496</v>
+        <v>4.546075205229109</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.464543230919891</v>
+        <v>1.217934893838756</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.784229138174262</v>
+        <v>3.657309356800022</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6553562534092446</v>
+        <v>2.264359748964599</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2175520838186843</v>
+        <v>4.719354243644628</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.588275665511021</v>
+        <v>5.772491110352364</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.777268989049217</v>
+        <v>4.867213461654026</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3483127036714455</v>
+        <v>0.07510208731427703</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.8371726278940723</v>
+        <v>0.3407576528441528</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2735137094874988</v>
+        <v>0.190721490769499</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.8351898143746201</v>
+        <v>0.639561222221335</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.2101650828146419</v>
+        <v>0.5922018597380492</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9201555537290067</v>
+        <v>0.006442152030202597</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.8397556960837455</v>
+        <v>0.4235541894053862</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.10108062835076</v>
+        <v>0.22947283658594</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.2357451562229579</v>
+        <v>0.3457990929839664</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5547777906694843</v>
+        <v>0.9495991331452556</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.9690295621759066</v>
+        <v>0.1949158515869995</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.560775051053401</v>
+        <v>0.2217410204275601</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.9546213952693037</v>
+        <v>0.3385004265446625</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.8045887170099725</v>
+        <v>0.9026755367469569</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.5178918001922972</v>
+        <v>0.2253297881452961</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.5560815817641805</v>
+        <v>0.3125263308912561</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3857307032148634</v>
+        <v>0.8411120513494095</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.1518572041841086</v>
+        <v>0.07559565205649199</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.6250959044507534</v>
+        <v>0.9557376855259406</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.6094298040810502</v>
+        <v>0.4224704962484203</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.7673709774305519</v>
+        <v>0.7659547029963621</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.4448350752514277</v>
+        <v>0.2986340237992249</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.9096585373342561</v>
+        <v>0.8926948951304567</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.2167941715579181</v>
+        <v>0.4862037420566963</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.07904802009021927</v>
+        <v>0.1257662907209044</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.805548527943617</v>
+        <v>0.4537936878912796</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.06535612583672046</v>
+        <v>0.6285565880281617</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.2526166800271354</v>
+        <v>0.4258694847973612</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.4943509033233064</v>
+        <v>0.236328925689433</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.134533470938744</v>
+        <v>0.04605897859408725</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.1391341845094807</v>
+        <v>0.6883262294488498</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.00340861431673134</v>
+        <v>0.8610623957036988</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.06822508143489248</v>
+        <v>0.9644461237162267</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.9172972627322733</v>
+        <v>0.1644114519064117</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.5713037381424041</v>
+        <v>0.8338290878564019</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.4872405389243049</v>
+        <v>0.1321868332897301</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.5207795650170064</v>
+        <v>0.8565271001490999</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.3409796091107542</v>
+        <v>0.1335837771121868</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.3817651602242936</v>
+        <v>0.2466679094785875</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.5668699411351302</v>
+        <v>0.3959875130533848</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.4003566099041541</v>
+        <v>0.3672416658369858</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.8085842163154915</v>
+        <v>0.4104280715418954</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.7981538517515477</v>
+        <v>0.02558757582676541</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.09708058320592539</v>
+        <v>0.7082184477691025</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.9784039562357031</v>
+        <v>0.05719065931007139</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.4175139471426504</v>
+        <v>0.6162956881679307</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.05052052070622448</v>
+        <v>0.4214959851762031</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.886910266253676</v>
+        <v>0.007551584092112762</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.3897936410792895</v>
+        <v>0.5762939599985859</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.1792566558788319</v>
+        <v>0.8267707202489178</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.7165861381782408</v>
+        <v>0.03907609232559706</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.4074485545937213</v>
+        <v>0.7778986977458932</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.4096873536104972</v>
+        <v>0.8338432955860783</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.590681922142397</v>
+        <v>0.7352073208320568</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.3869832999652075</v>
+        <v>0.3040255109828726</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.3096957577699896</v>
+        <v>0.4266405238736767</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.5719499782132148</v>
+        <v>0.5712810547510078</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.2381638223407349</v>
+        <v>0.008958425947554249</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.09203882008902908</v>
+        <v>0.6891530588461096</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.6151192216817521</v>
+        <v>0.9913534664921657</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.7410426303466535</v>
+        <v>0.5030356042832616</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.9480728063608185</v>
+        <v>0.5626233114790695</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.2990987912906937</v>
+        <v>0.9577806180131436</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.2009493908022928</v>
+        <v>0.3244357912972026</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.2979923512118152</v>
+        <v>0.2632781177016097</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.3275210104260137</v>
+        <v>0.6651036381522807</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.7415809673637128</v>
+        <v>0.007305011050538601</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.9230884926380953</v>
+        <v>0.07654654148361206</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.8323114808021661</v>
+        <v>0.9648761500391204</v>
       </c>
     </row>
     <row r="11">
@@ -3650,307 +3650,307 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.377929128282395</v>
+        <v>0.7174250429952156</v>
       </c>
       <c r="C11" t="n">
-        <v>1.556930284132737</v>
+        <v>-0.1039893367471827</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.11817398915091</v>
+        <v>1.411959722207701</v>
       </c>
       <c r="E11" t="n">
-        <v>1.519549096421215</v>
+        <v>0.7452833143279098</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1267178453880352</v>
+        <v>1.532785017282434</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5810985464250137</v>
+        <v>-1.127927425460766</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1670335625334637</v>
+        <v>0.192077051697174</v>
       </c>
       <c r="I11" t="n">
-        <v>1.679322171626515</v>
+        <v>1.481859635012466</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08145393592466701</v>
+        <v>-2.629517936657951</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.4232981201734405</v>
+        <v>-0.5251552514514951</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7945367045480258</v>
+        <v>1.239023396929534</v>
       </c>
       <c r="M11" t="n">
-        <v>4.679763882946532</v>
+        <v>3.292517250593267</v>
       </c>
       <c r="N11" t="n">
-        <v>2.737160087844503</v>
+        <v>2.074171496193701</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.374210484276864</v>
+        <v>1.311147040762512</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.9490678200281703</v>
+        <v>2.606578162637275</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.689260605201901</v>
+        <v>2.151232176786432</v>
       </c>
       <c r="R11" t="n">
-        <v>5.545191976182759</v>
+        <v>4.771628366560191</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84106604206193</v>
+        <v>5.7291176984695</v>
       </c>
       <c r="T11" t="n">
-        <v>2.967477068966306</v>
+        <v>3.457520046995755</v>
       </c>
       <c r="U11" t="n">
-        <v>3.407192470269168</v>
+        <v>3.203514575450123</v>
       </c>
       <c r="V11" t="n">
-        <v>2.994694898589314</v>
+        <v>1.566512087661815</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2003080255147879</v>
+        <v>0.5904082517510659</v>
       </c>
       <c r="X11" t="n">
-        <v>3.336403431198296</v>
+        <v>3.297037235342245</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.758666189403846</v>
+        <v>5.432880267679957</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.36426101379825</v>
+        <v>3.32507336682843</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.885080802092911</v>
+        <v>-1.148321358341728</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.691181129854666</v>
+        <v>0.7542116906116414</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.802718154484205</v>
+        <v>1.005515282556587</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.545975479131009</v>
+        <v>3.628938336120197</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.157203048049208</v>
+        <v>3.447975851712517</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.323609572508698</v>
+        <v>6.011382702048522</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1575737320241589</v>
+        <v>0.7986436049542658</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.8832705575891469</v>
+        <v>0.6285842978665921</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1792758699348412</v>
+        <v>0.053261556459547</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.1368984038358108</v>
+        <v>0.579076502510036</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.5597385266146724</v>
+        <v>0.4931218469285931</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7666642708653395</v>
+        <v>0.9023763727513023</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3517814659708487</v>
+        <v>0.1194746415576718</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.4033264159190897</v>
+        <v>0.7080748180066537</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.2213314245486496</v>
+        <v>0.1668244580297518</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.9365258459197962</v>
+        <v>0.5614791309944447</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.2315788190912058</v>
+        <v>0.9185205089654576</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.3081777694867134</v>
+        <v>0.1146519097520302</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6840672563704189</v>
+        <v>0.008407559492564998</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3444310840320275</v>
+        <v>0.5947697589329551</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.4590139386313469</v>
+        <v>0.02151674361178024</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.3525847467713078</v>
+        <v>0.8246550451563655</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.4138239306643652</v>
+        <v>0.2952120031743335</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.4396059977741577</v>
+        <v>0.0001034947354474625</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.2408969761496582</v>
+        <v>0.004569306123447414</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.7943483919237438</v>
+        <v>0.2026891210899544</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.02455035201665645</v>
+        <v>0.6458477458103775</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.5133381729802484</v>
+        <v>0.7859099089514667</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.8627547720457056</v>
+        <v>0.5161322514398529</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.2912163504402661</v>
+        <v>0.2946642267808625</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1179593289030303</v>
+        <v>0.6407375120392832</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2227368104952394</v>
+        <v>0.1637882574569833</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.3537027676316233</v>
+        <v>0.09059868613606381</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.4229796467469549</v>
+        <v>0.1711208938921452</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.5050136610999325</v>
+        <v>0.4859768302937093</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.3230967823238972</v>
+        <v>0.02014921970538486</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.5688780374321362</v>
+        <v>0.710254367595665</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.3389981745062242</v>
+        <v>0.9198557274003413</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.1526499563506665</v>
+        <v>0.5466724909410632</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.166812147154596</v>
+        <v>0.5633774021955142</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.5780528479212064</v>
+        <v>0.2473399958968652</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.8898843211475471</v>
+        <v>0.1503874516038914</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.1921416544266951</v>
+        <v>0.9718568959765617</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.5215332108758369</v>
+        <v>0.5025398875760014</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.9387248916567298</v>
+        <v>0.7354257745491041</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.2035222494599469</v>
+        <v>0.740816816503293</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.7246339304625823</v>
+        <v>0.5792881927733445</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.183619806988508</v>
+        <v>0.3227363009776054</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.3933775387190794</v>
+        <v>0.363132946282978</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.5886851852312549</v>
+        <v>0.0745485732686948</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.2970364689861654</v>
+        <v>0.3992418135681349</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.8015193518319372</v>
+        <v>0.6253574962837911</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.6558816724921266</v>
+        <v>0.4816536029447093</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.9844981152246746</v>
+        <v>0.02432210418711434</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.8528229682584335</v>
+        <v>0.9874079344267717</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.559258226448816</v>
+        <v>0.8589882531358707</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.7117284155437725</v>
+        <v>0.4876279490238519</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.02746929704168866</v>
+        <v>0.4668657439709358</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.1159038427650857</v>
+        <v>0.4992247271222944</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.2316719074894418</v>
+        <v>0.1466115236889195</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.1974562296567758</v>
+        <v>0.5843467108559876</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.9999673823611673</v>
+        <v>0.3964282955625418</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.7972472854545166</v>
+        <v>0.192829500500337</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.5272445657669087</v>
+        <v>0.8547413037777751</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.8375440981808464</v>
+        <v>0.4523970007794903</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.09031155102324029</v>
+        <v>0.5746639180926123</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.1874346323900361</v>
+        <v>0.8731425989073275</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.7105494047165246</v>
+        <v>0.1317602995275208</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.6407614243237206</v>
+        <v>0.2435641827063604</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.3101630865964942</v>
+        <v>0.7753814544814253</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.1213789995154372</v>
+        <v>0.6309537111851377</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.1668942178369287</v>
+        <v>0.7147251074962178</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.02635482240028686</v>
+        <v>0.577298651188906</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.8352430503985862</v>
+        <v>0.8005938270724311</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.4721874395480882</v>
+        <v>0.0008254674633875192</v>
       </c>
     </row>
     <row r="12">
@@ -3958,307 +3958,307 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.320766991423942</v>
+        <v>-2.053813769735785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.535458954629956</v>
+        <v>-1.091706894439541</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4110711962374557</v>
+        <v>1.21418639586013</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7585121280492363</v>
+        <v>-0.5792258503529971</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1547695367296908</v>
+        <v>-0.4679071510801834</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6639772625669188</v>
+        <v>0.4682903050005279</v>
       </c>
       <c r="H12" t="n">
-        <v>1.155370378869891</v>
+        <v>0.6449436639169127</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.003443786545647198</v>
+        <v>-0.4483677987194781</v>
       </c>
       <c r="J12" t="n">
-        <v>1.685405662754988</v>
+        <v>-1.882402905659324</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7094171233945303</v>
+        <v>-0.6776196216053437</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3130339874222142</v>
+        <v>2.379523158035358</v>
       </c>
       <c r="M12" t="n">
-        <v>1.252940390928123</v>
+        <v>1.66249271449101</v>
       </c>
       <c r="N12" t="n">
-        <v>3.538737227821613</v>
+        <v>2.891970326618314</v>
       </c>
       <c r="O12" t="n">
-        <v>1.003296193384877</v>
+        <v>4.3485463994688</v>
       </c>
       <c r="P12" t="n">
-        <v>1.052156639522619</v>
+        <v>5.85101031573488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.664409326022368</v>
+        <v>3.633481516788117</v>
       </c>
       <c r="R12" t="n">
-        <v>2.264285974466949</v>
+        <v>2.694110591178467</v>
       </c>
       <c r="S12" t="n">
-        <v>1.437797520101602</v>
+        <v>2.07656553655909</v>
       </c>
       <c r="T12" t="n">
-        <v>2.513986586850307</v>
+        <v>3.988383858496512</v>
       </c>
       <c r="U12" t="n">
-        <v>2.00799324857275</v>
+        <v>0.4203685054109313</v>
       </c>
       <c r="V12" t="n">
-        <v>2.681077762298807</v>
+        <v>2.7472696608926</v>
       </c>
       <c r="W12" t="n">
-        <v>5.549709330753195</v>
+        <v>4.037300006190642</v>
       </c>
       <c r="X12" t="n">
-        <v>1.223339159552064</v>
+        <v>2.940006411902087</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.02947273024537</v>
+        <v>2.219940695806477</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.406140213159108</v>
+        <v>0.7555904686921133</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.559008739258047</v>
+        <v>0.9064929194983629</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.628640152835213</v>
+        <v>0.08140297770129878</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.801015798171495</v>
+        <v>1.687210809187948</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.226849593745815</v>
+        <v>0.3037287510623262</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.7809524458572746</v>
+        <v>6.869263272192958</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.552038702015349</v>
+        <v>5.171333424084296</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.4625886944827609</v>
+        <v>0.2259135685002588</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.6437615972907541</v>
+        <v>0.07101757650790153</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.2995117099632468</v>
+        <v>0.551622892711772</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.8080179001798073</v>
+        <v>0.01573125839559464</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.5708339408654702</v>
+        <v>0.925406827452283</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.6331168204207602</v>
+        <v>0.3467346003491316</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.7503447301647416</v>
+        <v>0.1287554968663229</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.5494471254399864</v>
+        <v>0.3568670614598923</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.286636806420615</v>
+        <v>0.9753398992415498</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9925148120360089</v>
+        <v>0.5183298721860913</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.7508569617764027</v>
+        <v>0.6354307969640488</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5811368733846692</v>
+        <v>0.738328733145007</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.80046855260766</v>
+        <v>0.95398651198478</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.3163126224300568</v>
+        <v>0.2593181452941525</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.06214556208273703</v>
+        <v>0.4281590168730069</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.563020400253623</v>
+        <v>0.1456415206153149</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.2914932923880567</v>
+        <v>0.8668915923776741</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1931785047648389</v>
+        <v>0.6513196843555246</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.1178455141292033</v>
+        <v>0.5358377652549434</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.07532063505564557</v>
+        <v>0.2113586576251866</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.4203611018884723</v>
+        <v>0.823550007147178</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.01686962861093266</v>
+        <v>0.3073575350716996</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.666569027404797</v>
+        <v>0.1514625905481505</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.04030531886329825</v>
+        <v>0.1253926607625004</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.03183991006711384</v>
+        <v>0.5332779335448001</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.700268692098689</v>
+        <v>0.4789845381725683</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.1295077871336123</v>
+        <v>0.4060529519423969</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.4133608764905647</v>
+        <v>0.8060170790313257</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.447740690026817</v>
+        <v>0.02235213857724783</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.6682115295276543</v>
+        <v>0.1675222382204421</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.4988781756621826</v>
+        <v>0.3718105400268539</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.07970882127414625</v>
+        <v>0.41699965318184</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.4705961423364529</v>
+        <v>0.5817607722815358</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.1513473300647318</v>
+        <v>0.1632945763931246</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.7737252991694362</v>
+        <v>0.9432125555126463</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.224628921664912</v>
+        <v>0.7352575168689174</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.04173692874531099</v>
+        <v>0.3250866076428056</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.8528114438104786</v>
+        <v>0.126927039811364</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.6869209632803823</v>
+        <v>0.5023891460867601</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.7744713979936088</v>
+        <v>0.6470806473082927</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.83530489937613</v>
+        <v>0.7779521587502952</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.7120419144522155</v>
+        <v>0.5932030542956355</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.3652157425851975</v>
+        <v>0.6054764469474818</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.417086275180089</v>
+        <v>0.5522099976732521</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.2032394154103599</v>
+        <v>0.7761721814082997</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.3064700460703282</v>
+        <v>0.4619375038417936</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.5371720543249947</v>
+        <v>0.06586087517324379</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.9839731896468019</v>
+        <v>0.9539811337528235</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.2258621090659931</v>
+        <v>0.3048471733730963</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.3596618349492208</v>
+        <v>0.2963452305215282</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.08010831546570796</v>
+        <v>0.6993505287338107</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.9842362280308405</v>
+        <v>0.1300514261953467</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.2755069795615314</v>
+        <v>0.7709860627855676</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.21920849357467</v>
+        <v>0.3408145945706527</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.786865635333701e-05</v>
+        <v>0.3344580415184298</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.2374221049366891</v>
+        <v>0.1847935926072329</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.1430115559149479</v>
+        <v>0.7688980494001475</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.3843754307313786</v>
+        <v>0.05254255540236019</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.6096944459636841</v>
+        <v>0.6842515435773376</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.5466299910158777</v>
+        <v>0.964010386089195</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.7949453648559247</v>
+        <v>0.2133331466368098</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.3194529413003075</v>
+        <v>0.5766633042793246</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.9482793200376203</v>
+        <v>0.5676114405053484</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.7545055639581466</v>
+        <v>0.6387472396947661</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.2414677078981908</v>
+        <v>0.4493891978874464</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.9149659458706645</v>
+        <v>0.6066101818472295</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.1167448065121824</v>
+        <v>0.8768331223582666</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.1636520329842736</v>
+        <v>0.4353033222213649</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.4912212735886902</v>
+        <v>0.3962765173082475</v>
       </c>
     </row>
     <row r="13">
@@ -4266,307 +4266,307 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.04620166399149839</v>
+        <v>1.129576244000529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3035473920441119</v>
+        <v>0.04187327826337228</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5908889498568427</v>
+        <v>-0.03019817875436881</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1695339021330441</v>
+        <v>-0.46278534425653</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07835378339777349</v>
+        <v>-0.6712484757125157</v>
       </c>
       <c r="G13" t="n">
-        <v>1.536230978448589</v>
+        <v>1.50238979061752</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4924149168140974</v>
+        <v>0.2182134925359122</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6400884488454767</v>
+        <v>0.6349931509901384</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6089940654877919</v>
+        <v>-0.2678280980964549</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.270794161005691</v>
+        <v>0.5910727068565177</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4075927558414653</v>
+        <v>1.315220329634117</v>
       </c>
       <c r="M13" t="n">
-        <v>2.271416282101197</v>
+        <v>2.597148435420974</v>
       </c>
       <c r="N13" t="n">
-        <v>4.33882517709528</v>
+        <v>2.06776394299426</v>
       </c>
       <c r="O13" t="n">
-        <v>5.089028920070984</v>
+        <v>4.464881040007172</v>
       </c>
       <c r="P13" t="n">
-        <v>4.108645985673146</v>
+        <v>4.531342451813088</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2643978306415427</v>
+        <v>3.681968725485169</v>
       </c>
       <c r="R13" t="n">
-        <v>5.10013710596805</v>
+        <v>3.301534868350972</v>
       </c>
       <c r="S13" t="n">
-        <v>4.516413240301174</v>
+        <v>3.165803206783592</v>
       </c>
       <c r="T13" t="n">
-        <v>3.644326269572016</v>
+        <v>0.1555169640142213</v>
       </c>
       <c r="U13" t="n">
-        <v>3.68960211335785</v>
+        <v>3.555470936857677</v>
       </c>
       <c r="V13" t="n">
-        <v>4.966335475960686</v>
+        <v>3.031791508815297</v>
       </c>
       <c r="W13" t="n">
-        <v>1.256583538421657</v>
+        <v>4.360496541919464</v>
       </c>
       <c r="X13" t="n">
-        <v>1.381369540406341</v>
+        <v>2.91216742545712</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.375584482308599</v>
+        <v>4.104383207319937</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.297678769919939</v>
+        <v>2.505712900470116</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.469536205817182</v>
+        <v>0.3524627372097802</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.208829134434397</v>
+        <v>1.817454117013781</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.66277480966473</v>
+        <v>5.357675830655419</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.350360260565123</v>
+        <v>4.01798942590431</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.6609801385791484</v>
+        <v>5.387284826368578</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6895732884433962</v>
+        <v>3.587530943096298</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.473710514994435</v>
+        <v>0.240263486556849</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.7632346764241648</v>
+        <v>0.06022420574542064</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1287308907911169</v>
+        <v>0.268062254554796</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.6519761347637432</v>
+        <v>0.4440501865017964</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.4758326182842296</v>
+        <v>0.02774210345261985</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.4850805280014066</v>
+        <v>0.5587546093672145</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.4815991627608064</v>
+        <v>0.7070049161772272</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.7706315603542021</v>
+        <v>0.799367621221849</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.06661876912066611</v>
+        <v>0.9663843328816015</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.9926853089672204</v>
+        <v>0.815132312755749</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.5634919807546551</v>
+        <v>0.1854953712025339</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.534952204919295</v>
+        <v>0.7177024763418733</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.7938953989195584</v>
+        <v>0.8317688081122264</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2118164090861911</v>
+        <v>0.4949710202709714</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.03603446747602213</v>
+        <v>0.6490848705996279</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.7120229429115199</v>
+        <v>0.1773037771058803</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.4917441293715857</v>
+        <v>0.6927938896287076</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.5659105967093209</v>
+        <v>0.3988293209854151</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.4101372518800518</v>
+        <v>0.6437450391193089</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.470620640243224</v>
+        <v>0.4843051126805277</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.41866219274502</v>
+        <v>0.838078604498651</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.7774083513253607</v>
+        <v>0.1322696158776491</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.7219709691940509</v>
+        <v>0.3984256063190135</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.7409453702787321</v>
+        <v>0.2012113054374786</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.475725970656885</v>
+        <v>0.5118085668666802</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.8990957678165049</v>
+        <v>0.1377179232906836</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.9337973914459519</v>
+        <v>0.8586836446329668</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.2943982254607541</v>
+        <v>0.8859303653434606</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.6905718669196207</v>
+        <v>0.4168688392137307</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.3851951500473746</v>
+        <v>0.509291110985475</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.4272651413447442</v>
+        <v>0.6701483062236964</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.7719315629412178</v>
+        <v>0.5221561485396187</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.2622884346439736</v>
+        <v>0.7874811981098493</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.07165682390164174</v>
+        <v>0.5837800029587266</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.450736807204199</v>
+        <v>0.7723053921067538</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.8326559675289721</v>
+        <v>0.3234199453905511</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.05164129861903977</v>
+        <v>0.07744543433480156</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.9147236958524779</v>
+        <v>0.9631867541849995</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.1421412948172506</v>
+        <v>0.2405241169817447</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.9413697346691909</v>
+        <v>0.230637585474848</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.008565565116527729</v>
+        <v>0.3082517502750636</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001732437700732503</v>
+        <v>0.1151761049505506</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.7512842510373113</v>
+        <v>0.9947126918129885</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.8323454074268041</v>
+        <v>0.5410736480227456</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.8542414568236214</v>
+        <v>0.00393793015483479</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.4371439729255119</v>
+        <v>0.6710208987017273</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.8339524592578711</v>
+        <v>0.244861829059427</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.3449928260756735</v>
+        <v>0.3410792217814617</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.08154006823044002</v>
+        <v>0.1273254064377434</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.7567756116849246</v>
+        <v>0.7823590347068929</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.4510541437784487</v>
+        <v>0.6284766919652106</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.9707461169077531</v>
+        <v>0.03714546921138373</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.2750738480921191</v>
+        <v>0.01044829180355411</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.9873746881469998</v>
+        <v>0.7260363541471256</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.5885729884840927</v>
+        <v>0.3196579305510082</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.6334275674738046</v>
+        <v>0.4012069471688122</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.5082350328222528</v>
+        <v>0.722562810034962</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.5009471760532466</v>
+        <v>0.5844309913719411</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.7465422150982056</v>
+        <v>0.9653219162777031</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.706163273873686</v>
+        <v>0.2598230052388629</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.9444001729140951</v>
+        <v>0.6914434590867705</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.4882419480431536</v>
+        <v>0.4160798901897593</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.3105777331148263</v>
+        <v>0.8378133327970613</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.7429672982733726</v>
+        <v>0.618512493611558</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.6784172589296102</v>
+        <v>0.4666798231396807</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.08863815512847539</v>
+        <v>0.8970436169765013</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.866888180963963</v>
+        <v>0.6107117207103337</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.3452596002268424</v>
+        <v>0.3708618494711245</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.5006376337938054</v>
+        <v>0.5317258575173975</v>
       </c>
     </row>
     <row r="14">
@@ -4574,307 +4574,307 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.889946212559495</v>
+        <v>-6.855033288602168</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1825669200399495</v>
+        <v>0.3089194583638351</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8099556133294423</v>
+        <v>0.4638705620992358</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2525867831131496</v>
+        <v>-1.212092634994189</v>
       </c>
       <c r="F14" t="n">
-        <v>1.320835977630392</v>
+        <v>-1.155440115076959</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1006722411281239</v>
+        <v>-0.3036451912090166</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4100208561991435</v>
+        <v>0.2860749796067227</v>
       </c>
       <c r="I14" t="n">
-        <v>1.367641237049686</v>
+        <v>0.06099805964724297</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9525253097250447</v>
+        <v>-0.3577203860291581</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8863815010346565</v>
+        <v>-1.26495169597835</v>
       </c>
       <c r="L14" t="n">
-        <v>1.479666167679689</v>
+        <v>-1.539281711038015</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6712667994506825</v>
+        <v>3.427205705211157</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013284680839731</v>
+        <v>0.3634267667237668</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.2042988501124751</v>
+        <v>2.417060088406497</v>
       </c>
       <c r="P14" t="n">
-        <v>3.71357370847387</v>
+        <v>0.4455622941252473</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.714429321946361</v>
+        <v>0.4239933038610575</v>
       </c>
       <c r="R14" t="n">
-        <v>3.739174552710491</v>
+        <v>0.08448472673526264</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25320117781551</v>
+        <v>3.116057831951087</v>
       </c>
       <c r="T14" t="n">
-        <v>1.557235432303504</v>
+        <v>-0.008670382763215967</v>
       </c>
       <c r="U14" t="n">
-        <v>1.275748489738633</v>
+        <v>3.789853603377144</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3628088230063551</v>
+        <v>1.664869435140734</v>
       </c>
       <c r="W14" t="n">
-        <v>3.708906740284345</v>
+        <v>3.208858416461783</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2561448765198651</v>
+        <v>1.929140172252958</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.353662734832369</v>
+        <v>1.574913676768754</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.959661506189941</v>
+        <v>3.884142153958957</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.004971820533823</v>
+        <v>1.253700126506391</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.602454615784316</v>
+        <v>3.580497782941515</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.242724315696595</v>
+        <v>0.6844145876002858</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.047247335438126</v>
+        <v>-1.286612713501345</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.659563493466084</v>
+        <v>2.1767741082357</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.219514060482254</v>
+        <v>-1.700294473067527</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.9294478831400534</v>
+        <v>0.8756503700942082</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.8494190612057072</v>
+        <v>0.627226964540313</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.7774348236827666</v>
+        <v>0.9158265354058372</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.00275135306807528</v>
+        <v>0.2838589788093533</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.4634195447514466</v>
+        <v>0.2693790730814176</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.4913363200721638</v>
+        <v>0.7741431053367995</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.8564283824025507</v>
+        <v>0.4724601717042705</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.578664762609597</v>
+        <v>0.1948832733003728</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.6756890058072066</v>
+        <v>0.3234072301162157</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.05375989455768748</v>
+        <v>0.7342660099124479</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.1334421466156859</v>
+        <v>0.2085940370009779</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.7780518355378481</v>
+        <v>0.5895600918183039</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.212540060960655</v>
+        <v>0.9970183504186926</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9958898569118116</v>
+        <v>0.9523149726752655</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.5839995730318079</v>
+        <v>0.6612889037084225</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.6985966580812826</v>
+        <v>0.2857505068030796</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.5710525142205123</v>
+        <v>0.6851598403830461</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.4576878648038711</v>
+        <v>0.8246040932112036</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.3749803933806444</v>
+        <v>0.7310704645478932</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.2766911328308391</v>
+        <v>0.9999624774136093</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.07420273818201384</v>
+        <v>0.6682680833587544</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.1887279299214594</v>
+        <v>0.8369429318327067</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.2940910017152849</v>
+        <v>0.09201967310384407</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.06483824762529111</v>
+        <v>0.4476687624240204</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.6209920905499541</v>
+        <v>0.5302086223185885</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.3201831279111836</v>
+        <v>0.2955841040956131</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.810461188157994</v>
+        <v>0.1206984875860402</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.2646076724779398</v>
+        <v>0.9640279331701641</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0007984587482705585</v>
+        <v>0.9994856488632018</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.4320547321930406</v>
+        <v>0.04901949802562533</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.7432049622486278</v>
+        <v>0.4697829108849554</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.09624336271167799</v>
+        <v>0.4952952828170594</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.6885769301584249</v>
+        <v>0.7053463808825894</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.4289867224528275</v>
+        <v>0.00626793524184166</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.9468842674191199</v>
+        <v>0.2025316085494405</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.3109868587499344</v>
+        <v>0.8515738232389732</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.348949844374993</v>
+        <v>0.8857954545491711</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.8121249720889568</v>
+        <v>0.5309798669361888</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.1899562243696354</v>
+        <v>0.04417288506144634</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.9679559568635673</v>
+        <v>0.1039043555083076</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.9924920071297566</v>
+        <v>0.9555510417842149</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.8003557795340104</v>
+        <v>0.04249778273233273</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.7214580615632707</v>
+        <v>0.1610421614476282</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.1490010327642004</v>
+        <v>0.09979257866379243</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.6128082172211583</v>
+        <v>0.8076513779618791</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.2426827937075149</v>
+        <v>0.8525424551565004</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.6175586605682977</v>
+        <v>0.08402951933750591</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.3066031497619711</v>
+        <v>0.6456552537545958</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.8091434904388894</v>
+        <v>0.3664512855615775</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.9084500394679457</v>
+        <v>0.862180162172509</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.6972126439667524</v>
+        <v>0.5089696884944369</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.7211810497143489</v>
+        <v>0.8370947532238004</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.6524798891596962</v>
+        <v>0.3102782610332764</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.08833647937018696</v>
+        <v>0.1890519690924026</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.5115126009741107</v>
+        <v>0.4343474358324074</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.237204683100283</v>
+        <v>0.8173902335232174</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.5655193130738002</v>
+        <v>0.8436551954581307</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.06899400199656724</v>
+        <v>0.9078269903563031</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.41629436581028</v>
+        <v>0.8081674977027973</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.6665103032391818</v>
+        <v>0.7397223295551426</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.6674417804407691</v>
+        <v>0.7867072977082668</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.8586407654447443</v>
+        <v>0.9539651309355776</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.6469068285529729</v>
+        <v>0.5604739531793421</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.8066131754218666</v>
+        <v>0.310327785880692</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.06121836192495078</v>
+        <v>0.515119755845867</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.7107870927495002</v>
+        <v>0.4298855925289622</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.6484123696814947</v>
+        <v>0.3933258840467824</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.7163196151775871</v>
+        <v>0.9946564921529643</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.5182830442289454</v>
+        <v>0.04328136511972458</v>
       </c>
     </row>
     <row r="15">
@@ -4882,307 +4882,307 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.263571286385634</v>
+        <v>-1.550720376110215</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.400614773153741</v>
+        <v>-0.4934251268521141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8483950939483061</v>
+        <v>-1.742298956001404</v>
       </c>
       <c r="E15" t="n">
-        <v>1.166882936330277</v>
+        <v>-0.07648984874277212</v>
       </c>
       <c r="F15" t="n">
-        <v>1.245414703175614</v>
+        <v>-1.212465209100442</v>
       </c>
       <c r="G15" t="n">
-        <v>1.823777640526184</v>
+        <v>-0.2803727274611328</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5654269415941369</v>
+        <v>-0.138585977655857</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.886155613551823</v>
+        <v>0.7960666939484816</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3830744693517484</v>
+        <v>2.070900551652413</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.4847647234583181</v>
+        <v>1.264807854913687</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8597113477534386</v>
+        <v>0.3760890857746746</v>
       </c>
       <c r="M15" t="n">
-        <v>2.699040059915886</v>
+        <v>0.6859937181781864</v>
       </c>
       <c r="N15" t="n">
-        <v>2.143364190421454</v>
+        <v>0.3511814066907285</v>
       </c>
       <c r="O15" t="n">
-        <v>5.435587094219558</v>
+        <v>-0.905290380620861</v>
       </c>
       <c r="P15" t="n">
-        <v>3.264989132322332</v>
+        <v>-0.2877882343766429</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.70657839026216</v>
+        <v>2.282777754057669</v>
       </c>
       <c r="R15" t="n">
-        <v>3.710431658073141</v>
+        <v>1.084598381853832</v>
       </c>
       <c r="S15" t="n">
-        <v>1.704594750366423</v>
+        <v>-1.032828532574989</v>
       </c>
       <c r="T15" t="n">
-        <v>3.682807092900224</v>
+        <v>1.152204783590083</v>
       </c>
       <c r="U15" t="n">
-        <v>3.822656555729949</v>
+        <v>0.5982580581756362</v>
       </c>
       <c r="V15" t="n">
-        <v>5.938289810648845</v>
+        <v>0.8855708801468595</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4336434123151089</v>
+        <v>2.833488260756271</v>
       </c>
       <c r="X15" t="n">
-        <v>2.048967185689067</v>
+        <v>3.83422135069416</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.4550068770045692</v>
+        <v>3.757068516930917</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.062164433471746</v>
+        <v>3.194831272142687</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.030922976520633</v>
+        <v>4.870508674046872</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.6413958688518906</v>
+        <v>4.312099219472309</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.276587067808742</v>
+        <v>2.526667291246814</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.045327365140261</v>
+        <v>1.618711004628594</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.010487570376341</v>
+        <v>3.036290118338461</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.422710890800659</v>
+        <v>4.364059331842641</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.06392262096805024</v>
+        <v>0.382574127464957</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.06317251666446322</v>
+        <v>0.07432283814159546</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1147257154554779</v>
+        <v>0.9400181949751157</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.7395771731624231</v>
+        <v>0.7723508184552376</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.7524747217236866</v>
+        <v>0.1649007129471642</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.6711110932784641</v>
+        <v>0.8358495003195027</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.8187767969400291</v>
+        <v>0.4019481901849467</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9663740082202873</v>
+        <v>0.7924457770363488</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.4708532020498754</v>
+        <v>0.5965224744678788</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.9381026099393648</v>
+        <v>0.6240870120380837</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.5125366499926776</v>
+        <v>0.1904820798069684</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.399141537403169</v>
+        <v>0.1338691521983972</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.7276365725649676</v>
+        <v>0.4872860860074686</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.4153152597259216</v>
+        <v>0.9205281306098361</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.09797509870452936</v>
+        <v>0.7603081059363364</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9092312243630034</v>
+        <v>0.2909255827215051</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.02993983700740832</v>
+        <v>0.03434987262565625</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.4849191860532461</v>
+        <v>0.8655496305931264</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.3662854939829836</v>
+        <v>0.3000869832016734</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0711385018360241</v>
+        <v>0.251604015837863</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.6319377433772966</v>
+        <v>0.1667979467721127</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.7047491975882108</v>
+        <v>0.7384221492807732</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.01493372229811429</v>
+        <v>0.5388828323739124</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9727664569525648</v>
+        <v>0.7723844274541671</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.5008411311039463</v>
+        <v>0.2882600420051814</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1868996396805901</v>
+        <v>0.8955634144542628</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2705034101764714</v>
+        <v>0.4854841517183568</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.5876051860701665</v>
+        <v>0.6544999248091636</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.9905246678623307</v>
+        <v>0.03740282799737404</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.2925954471993478</v>
+        <v>0.5873605337596589</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.6113199754493278</v>
+        <v>0.296889727992223</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.6142529306271883</v>
+        <v>0.2717366229228056</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.7357434546581854</v>
+        <v>0.9921471964699835</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.08451413838079225</v>
+        <v>0.6950189556047387</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.05989367744970742</v>
+        <v>0.9158606048012575</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.7720312337812237</v>
+        <v>0.7625652618585902</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.2711896894678612</v>
+        <v>0.5080650153634684</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.4685596070626298</v>
+        <v>0.9966295519239157</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.7607368796151777</v>
+        <v>0.9871756202077635</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.4867079155682034</v>
+        <v>0.2974042207559681</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.9373559618085394</v>
+        <v>0.1051568541676182</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.6450557932396511</v>
+        <v>0.8787086142299421</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.1442333703780072</v>
+        <v>0.5755973946290728</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.3404879333047965</v>
+        <v>0.1766205067527851</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.8403431760017978</v>
+        <v>0.007029882154199973</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.4725229011239344</v>
+        <v>0.4697604596390996</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.6003197232849793</v>
+        <v>0.9044233533761027</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.9765149048847689</v>
+        <v>0.04185280478411435</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.4432163985186881</v>
+        <v>0.9886609147502291</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.3983250336024059</v>
+        <v>0.1186159547691641</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.4485156300338934</v>
+        <v>0.7888405718131022</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.2010881657925933</v>
+        <v>0.9643529121997237</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.2726898361575696</v>
+        <v>0.4386229755078446</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.2402450288581411</v>
+        <v>0.7893782365373601</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.1040339012567812</v>
+        <v>0.6437201611246992</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.5630085510712469</v>
+        <v>0.3260621133766858</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.6484444658952756</v>
+        <v>0.124168559296977</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.749473732484422</v>
+        <v>0.1536712442721293</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.4811947616814638</v>
+        <v>0.4188229666032076</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0869189198530349</v>
+        <v>0.849517127377258</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.8265247150372289</v>
+        <v>0.7016610045727192</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1816115609158645</v>
+        <v>0.9029952994014051</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.75032057835356</v>
+        <v>0.4639155935256623</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.4233268020977823</v>
+        <v>0.6022248506489468</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.3455210447022674</v>
+        <v>0.5847666036742843</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.7197194514876647</v>
+        <v>0.05056588038481713</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.3815094284872415</v>
+        <v>0.135179825280913</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.07547697370655382</v>
+        <v>0.6980823231580906</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.02129053427133099</v>
+        <v>0.5742855570503201</v>
       </c>
     </row>
     <row r="16">
@@ -5190,307 +5190,307 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8234522415215657</v>
+        <v>1.233053261010646</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3552740443820874</v>
+        <v>0.1316701028890068</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3197924611926266</v>
+        <v>-0.7533803447260421</v>
       </c>
       <c r="E16" t="n">
-        <v>1.36578713181305</v>
+        <v>0.3583596408473725</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4363449643759476</v>
+        <v>1.001436801208241</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6243612505913481</v>
+        <v>-0.01121542493574643</v>
       </c>
       <c r="H16" t="n">
-        <v>1.666623620885993</v>
+        <v>0.5930135124756143</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05519313631135882</v>
+        <v>1.334165559547069</v>
       </c>
       <c r="J16" t="n">
-        <v>0.826657907139665</v>
+        <v>-1.389194586192034</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.6372596996872699</v>
+        <v>1.286078357956502</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.036975622490644</v>
+        <v>0.7955976880640563</v>
       </c>
       <c r="M16" t="n">
-        <v>1.352605934154328</v>
+        <v>1.405281127783019</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.3857490215486454</v>
+        <v>4.521782650552638</v>
       </c>
       <c r="O16" t="n">
-        <v>3.814391059450262</v>
+        <v>3.732464381608174</v>
       </c>
       <c r="P16" t="n">
-        <v>2.351347804603631</v>
+        <v>-0.6160320435666761</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.011368827725274</v>
+        <v>2.584573952668078</v>
       </c>
       <c r="R16" t="n">
-        <v>4.412391766940166</v>
+        <v>4.285024505435049</v>
       </c>
       <c r="S16" t="n">
-        <v>2.25159974242555</v>
+        <v>4.086073330617703</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7570725113179844</v>
+        <v>5.194538521302603</v>
       </c>
       <c r="U16" t="n">
-        <v>2.462142295181041</v>
+        <v>4.425634121580702</v>
       </c>
       <c r="V16" t="n">
-        <v>4.324857809579791</v>
+        <v>0.9973266013335074</v>
       </c>
       <c r="W16" t="n">
-        <v>4.672383477225983</v>
+        <v>1.859588713257469</v>
       </c>
       <c r="X16" t="n">
-        <v>5.652530770142018</v>
+        <v>3.659720736068015</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.193950100095541</v>
+        <v>5.378363779494725</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.210289820509847</v>
+        <v>5.756321918708049</v>
       </c>
       <c r="AA16" t="n">
-        <v>4.88440122669948</v>
+        <v>3.099869790975169</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.777219805800775</v>
+        <v>1.839547277393872</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.384923310611902</v>
+        <v>2.265862745895035</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.6614972243043535</v>
+        <v>4.269721789491512</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.016592891014162</v>
+        <v>5.449547048802501</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.682441393243651</v>
+        <v>3.594896132171316</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.5307948452527312</v>
+        <v>0.6162604525874165</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.3063131281416909</v>
+        <v>0.7816995001383807</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.06936414997094587</v>
+        <v>0.252423863508363</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.9351890914151181</v>
+        <v>0.4499379572299876</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.8334411673392904</v>
+        <v>0.124413688521836</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.8852148041296047</v>
+        <v>0.1720537739760351</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.3505787623181996</v>
+        <v>0.7035669154927744</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.9629200075746239</v>
+        <v>0.6441313948299559</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.01240015301503672</v>
+        <v>0.5857313905268683</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.4807291397320724</v>
+        <v>0.7962733819300762</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.5251318192025107</v>
+        <v>0.3631661737946077</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.1487982249451442</v>
+        <v>0.45087697733475</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.7095943331782111</v>
+        <v>0.1570274388949108</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.8113112810209393</v>
+        <v>0.1828559420976203</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.05028683882316998</v>
+        <v>0.7844621598996098</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.8851831379436862</v>
+        <v>0.9181223802104505</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.9853229556942574</v>
+        <v>0.87137963308545</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.9678688472817625</v>
+        <v>0.343415330254228</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.921606218221614</v>
+        <v>0.9888738120470726</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.310043464573814</v>
+        <v>0.3108241506531422</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.2557628624872607</v>
+        <v>0.8399813216528939</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.3825906461091295</v>
+        <v>0.1870015906735242</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.006802892604570343</v>
+        <v>0.8886528410846071</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.215405454243055</v>
+        <v>0.2959697539743567</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.6537779793320678</v>
+        <v>0.3705288858620817</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.7464864164689374</v>
+        <v>0.2850005192770981</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.9726387599066485</v>
+        <v>0.9171679491718708</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.2717929327435157</v>
+        <v>0.07295669261940596</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.2471387942296895</v>
+        <v>0.4927638287950961</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.3828892810530525</v>
+        <v>0.6773504245071709</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.511648880956134</v>
+        <v>0.2200481752824682</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.2581457352484353</v>
+        <v>0.4703647181244717</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.392437819149007</v>
+        <v>0.6355647413998375</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.2408497447557743</v>
+        <v>0.0962141219090985</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.3050197445109415</v>
+        <v>0.7108335963052016</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.7634802947108486</v>
+        <v>0.2885457547601148</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.04789356140264212</v>
+        <v>0.8235576418726136</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.4753761106886705</v>
+        <v>0.760055671936586</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.1427238591805212</v>
+        <v>0.9411439741765958</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.3522811436638927</v>
+        <v>0.3118506254724824</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.4898078069921471</v>
+        <v>0.5991133074149974</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.7828132412564922</v>
+        <v>0.57277641612718</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.6210985776503531</v>
+        <v>0.08412832781479629</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.04302752941229215</v>
+        <v>0.577534701742047</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.7486741847592981</v>
+        <v>0.6385123589584339</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.9041990783783672</v>
+        <v>0.3515343282718072</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.7464851802523039</v>
+        <v>0.5048777414213074</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.2626331032452986</v>
+        <v>0.3816334953903994</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.2528329778684825</v>
+        <v>0.3987804453512011</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.8826549998010368</v>
+        <v>0.8565443311578963</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.6384470520779298</v>
+        <v>0.1997988063366563</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.6065013839620657</v>
+        <v>0.2647041882622967</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.7498601860502896</v>
+        <v>0.7354603781372883</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.6149100743236541</v>
+        <v>0.1577047273131194</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.04809355757330491</v>
+        <v>0.4202816169626442</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.3457353840999385</v>
+        <v>0.2718406835467839</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.6955741374811147</v>
+        <v>0.3893496363406068</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.1932902207709211</v>
+        <v>0.08094961016753455</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.3433736098324132</v>
+        <v>0.3409964544347736</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.4380997558894677</v>
+        <v>0.11249020812474</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.3805929861574222</v>
+        <v>0.7046030457077751</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.9588291194606292</v>
+        <v>0.27791820852194</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.8902470569184198</v>
+        <v>0.8848838121326774</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.3425665101836631</v>
+        <v>0.1678109090059099</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.9829663746847209</v>
+        <v>0.4403960121910763</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.3151476532309282</v>
+        <v>0.4671638757172413</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.7973174712499426</v>
+        <v>0.8458022411031371</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.5180221819323616</v>
+        <v>0.4922274037676048</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.2333208247762001</v>
+        <v>0.9259096286781427</v>
       </c>
     </row>
     <row r="17">
@@ -5498,307 +5498,307 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.660251852620426</v>
+        <v>-2.85733618921802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7779191685339244</v>
+        <v>0.3731586813400025</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7214540146133814</v>
+        <v>-0.9911428796294566</v>
       </c>
       <c r="E17" t="n">
-        <v>2.046663866167638</v>
+        <v>0.3167970638688776</v>
       </c>
       <c r="F17" t="n">
-        <v>1.453638717209978</v>
+        <v>0.7618771575253604</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8232939986099781</v>
+        <v>-1.424806093963558</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3132224123355278</v>
+        <v>-1.010990376728488</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.669675914440101</v>
+        <v>-0.9494584301059407</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9157525237486994</v>
+        <v>0.4003788452097535</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.9064929039481339</v>
+        <v>0.3765663294863739</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.6683244018632016</v>
+        <v>0.9585083359578361</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8469625997177084</v>
+        <v>3.10985819351707</v>
       </c>
       <c r="N17" t="n">
-        <v>1.113175830789437</v>
+        <v>1.283192552901251</v>
       </c>
       <c r="O17" t="n">
-        <v>3.124531366051361</v>
+        <v>0.9733452774014433</v>
       </c>
       <c r="P17" t="n">
-        <v>1.623889214089053</v>
+        <v>0.4788611436173893</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.704353381056258</v>
+        <v>4.851016517635816</v>
       </c>
       <c r="R17" t="n">
-        <v>5.457939801977842</v>
+        <v>5.134942353403067</v>
       </c>
       <c r="S17" t="n">
-        <v>4.515959631853838</v>
+        <v>3.827406410986795</v>
       </c>
       <c r="T17" t="n">
-        <v>1.604508114046583</v>
+        <v>4.753097697623141</v>
       </c>
       <c r="U17" t="n">
-        <v>3.818330415370536</v>
+        <v>3.430566916069074</v>
       </c>
       <c r="V17" t="n">
-        <v>1.570932113368808</v>
+        <v>1.299535974115539</v>
       </c>
       <c r="W17" t="n">
-        <v>5.103109232036322</v>
+        <v>2.342533637092187</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4795239919425803</v>
+        <v>1.788616052106061</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.342263063520416</v>
+        <v>3.201871933288305</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03479141423461729</v>
+        <v>1.074753950101033</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.646999818766886</v>
+        <v>1.332570832061252</v>
       </c>
       <c r="AB17" t="n">
-        <v>3.283735898229374</v>
+        <v>2.754799553269349</v>
       </c>
       <c r="AC17" t="n">
-        <v>3.679795103930814</v>
+        <v>1.585044313724306</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.079739088305523</v>
+        <v>4.365188677684388</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.01137930732996</v>
+        <v>0.969878624380662</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.858565286407042</v>
+        <v>5.306350886003035</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.9511494512985614</v>
+        <v>0.5174965483161299</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.08784080709117625</v>
+        <v>0.1528542308994881</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.5195678541943834</v>
+        <v>0.7801271705891825</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.9710926072330913</v>
+        <v>0.5131198405924062</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.1505646485518832</v>
+        <v>0.3000427805333957</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.2559230261623582</v>
+        <v>0.2636328854017526</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.9035337243448864</v>
+        <v>0.4848204173008814</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.5107931913238636</v>
+        <v>0.7048128199504748</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.2274862154477404</v>
+        <v>0.4435999787879353</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8078873292147686</v>
+        <v>0.3605220289925279</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.9706569996387134</v>
+        <v>0.2145947278079773</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.2281620554965602</v>
+        <v>0.2619156222760566</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4851137984537748</v>
+        <v>0.6088604466727892</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.8003614417933717</v>
+        <v>0.4836966940792671</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1514990821130595</v>
+        <v>0.5839098125989796</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.1591665460211498</v>
+        <v>0.3152605540041833</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.4716092882496528</v>
+        <v>0.7562560059161999</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.5448624487313192</v>
+        <v>0.599504113544059</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.7249186737879943</v>
+        <v>0.9234254166721462</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.6665963299152594</v>
+        <v>0.9528670652249119</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.9518713472205829</v>
+        <v>0.349128451127636</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.5246639447998747</v>
+        <v>0.5802838228846964</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.3184607250974466</v>
+        <v>0.1619740719346233</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.6073349571260122</v>
+        <v>0.6817268705896935</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.04547359311004184</v>
+        <v>0.5286257718878794</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.4705193499583089</v>
+        <v>0.3872134331144088</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.2123205825170945</v>
+        <v>0.1852393083394637</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.3443707494992757</v>
+        <v>0.4030365897782194</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.8854014578479645</v>
+        <v>0.2639619607166709</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.6318375640935754</v>
+        <v>0.3098766295652744</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.4360552292458476</v>
+        <v>0.2065848876673803</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.2080014826387592</v>
+        <v>0.5267033111684081</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.2105115877635286</v>
+        <v>0.06621724256530914</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.2849506297231433</v>
+        <v>0.525230132784185</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.002119006339563967</v>
+        <v>0.8676540373281775</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.7008687442466917</v>
+        <v>0.5846378852613203</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.8524223330211593</v>
+        <v>0.2162462074671941</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.2026449251295113</v>
+        <v>0.2473930258617443</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.2478080267603948</v>
+        <v>0.435894703460477</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.9533227558369528</v>
+        <v>0.9474786161637161</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.4402205997624486</v>
+        <v>0.6307496176508193</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.3542087264932541</v>
+        <v>0.7347199168765878</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.9377775546346163</v>
+        <v>0.4713249560000788</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.6708093320811872</v>
+        <v>0.4354971412775077</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.5509657138922621</v>
+        <v>0.8021831794675851</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.9412042057680191</v>
+        <v>0.1403056114514668</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.2688862642636151</v>
+        <v>0.8847835222942136</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.09457773747969922</v>
+        <v>0.4205675859078719</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.8867182333403224</v>
+        <v>0.225346360383144</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.3308129359152672</v>
+        <v>0.5618689117811531</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.94648720147351</v>
+        <v>0.8315935784728318</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.8008061898545934</v>
+        <v>0.6023657600850321</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.05210387158841456</v>
+        <v>0.1581164527120514</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.9026334583843409</v>
+        <v>0.05170044375085614</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.8059462336768302</v>
+        <v>0.7961145312525384</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.7485739081937455</v>
+        <v>0.9275572531311796</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.293321416076286</v>
+        <v>0.767862793886904</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.5048903955352897</v>
+        <v>0.8434822879142101</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.02088322454923519</v>
+        <v>0.7774940917165521</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.3371903892595247</v>
+        <v>0.7448687661076168</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.9837383862499067</v>
+        <v>0.4978662175339962</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.1128111837914959</v>
+        <v>0.9757075119703958</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.8206569843228194</v>
+        <v>0.1674473426146216</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.4638302690054373</v>
+        <v>0.9436799683444469</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.1093139375357811</v>
+        <v>0.2818313499150513</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.02303029966281223</v>
+        <v>0.9900707039292681</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.3907698652820234</v>
+        <v>0.6680819792601917</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.6785047331425502</v>
+        <v>0.6571552630395422</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.4541487002051839</v>
+        <v>0.2012435474473765</v>
       </c>
     </row>
     <row r="18">
@@ -5806,307 +5806,307 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.385499000867294</v>
+        <v>1.860487716376523</v>
       </c>
       <c r="C18" t="n">
-        <v>2.042733490126668</v>
+        <v>0.2921389318912272</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.751883059031209</v>
+        <v>-1.661611027812776</v>
       </c>
       <c r="E18" t="n">
-        <v>2.866218192366803</v>
+        <v>1.449324260179226</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09087109895835334</v>
+        <v>0.9177165810119511</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7633320926023637</v>
+        <v>1.844946167588343</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.8508050177747325</v>
+        <v>-1.006891709280949</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6314438790756114</v>
+        <v>-1.180077334466707</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6545678967761913</v>
+        <v>2.428727432226763</v>
       </c>
       <c r="K18" t="n">
-        <v>1.001234011455466</v>
+        <v>0.3357622018943484</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7621295426153152</v>
+        <v>0.2133671310350194</v>
       </c>
       <c r="M18" t="n">
-        <v>3.844561436278865</v>
+        <v>3.376635999218298</v>
       </c>
       <c r="N18" t="n">
-        <v>4.628444667207408</v>
+        <v>0.7324103874357054</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.7182930044896005</v>
+        <v>2.266872234893667</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4500953711046629</v>
+        <v>-1.59285951838196</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.318581362706579</v>
+        <v>2.825024771471187</v>
       </c>
       <c r="R18" t="n">
-        <v>3.39856046857903</v>
+        <v>5.982083919640717</v>
       </c>
       <c r="S18" t="n">
-        <v>3.786492855455651</v>
+        <v>3.377914226225351</v>
       </c>
       <c r="T18" t="n">
-        <v>2.23392052201101</v>
+        <v>3.464739360084645</v>
       </c>
       <c r="U18" t="n">
-        <v>2.002891333360166</v>
+        <v>5.995436600489898</v>
       </c>
       <c r="V18" t="n">
-        <v>2.849537167419223</v>
+        <v>6.473635177230634</v>
       </c>
       <c r="W18" t="n">
-        <v>3.983521710012135</v>
+        <v>3.627805375254855</v>
       </c>
       <c r="X18" t="n">
-        <v>3.896875212439591</v>
+        <v>3.582454133272009</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.052476754658858</v>
+        <v>0.03936931778062802</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.200362936252119</v>
+        <v>0.7260768170521492</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.441350096214962</v>
+        <v>4.055063675934804</v>
       </c>
       <c r="AB18" t="n">
-        <v>4.615357044285161</v>
+        <v>2.359914934609654</v>
       </c>
       <c r="AC18" t="n">
-        <v>4.799607610830053</v>
+        <v>0.4233443268361324</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.584409940798523</v>
+        <v>2.007676496186128</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.16194822195822</v>
+        <v>3.632125682088549</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.268788804127604</v>
+        <v>2.112303843403483</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.7461700181316921</v>
+        <v>0.5841916144200984</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.9639127647381833</v>
+        <v>0.8506176524399471</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.158032575566957</v>
+        <v>0.01352717103663292</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.2078418136393758</v>
+        <v>0.6046813960267251</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.42331675494716</v>
+        <v>0.9550331192074296</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.8605741643709603</v>
+        <v>0.9874713039954669</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.2604934046137791</v>
+        <v>0.09379032524322384</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.9880624941938817</v>
+        <v>0.4140669119104881</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.3309220812768876</v>
+        <v>0.2005038919603203</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.4387425620232042</v>
+        <v>0.8404795627873035</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.6794290791186217</v>
+        <v>0.2260205821682288</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3824363043528293</v>
+        <v>0.3135011154653605</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5180433228635865</v>
+        <v>0.6175477070088284</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.6964310095494916</v>
+        <v>0.6922272536076028</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.1237876145478491</v>
+        <v>0.4321046704269016</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.563410937695751</v>
+        <v>0.1845167557947816</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2271536387368231</v>
+        <v>0.7412110369917917</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.3992606142209609</v>
+        <v>0.2616694315144418</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.1087751380208675</v>
+        <v>0.8900752729959119</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.9215281657320118</v>
+        <v>0.6717745324243575</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.6614014034064409</v>
+        <v>0.006686199618207489</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.2142907840526953</v>
+        <v>0.6443602291699794</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.935698481228613</v>
+        <v>0.9129019730677217</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.9490487541125522</v>
+        <v>0.6243125403921277</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.6979820712320388</v>
+        <v>0.4487226829618836</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.04743779859648101</v>
+        <v>0.1468035823229248</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.3542746889270498</v>
+        <v>0.7960973460724536</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.6885974150343899</v>
+        <v>0.3325505596958581</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.2730979323426859</v>
+        <v>0.2235563132650873</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.1689032992247357</v>
+        <v>0.3557205305116954</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.4245506422237273</v>
+        <v>0.1939246557938715</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.03129208111942017</v>
+        <v>0.647843032211502</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0876123877352637</v>
+        <v>0.1867441034347939</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.001615107185379161</v>
+        <v>0.534020833430196</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.07330893295725394</v>
+        <v>0.9621892699865997</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.3061005109600113</v>
+        <v>0.9749331915425438</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.3341551840112584</v>
+        <v>0.5148152431113322</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.4130112178631518</v>
+        <v>0.7965611812417023</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.2053755341253807</v>
+        <v>0.02958065293871803</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.7724983421142875</v>
+        <v>0.049707409182706</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.5830018919547439</v>
+        <v>0.8238257935240355</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.1653259684855798</v>
+        <v>0.5955486669530926</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.9574434572978859</v>
+        <v>0.563097698479616</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.09528236728110639</v>
+        <v>0.3849198012321517</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.781672700436385</v>
+        <v>0.3675001340112605</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.7898635159568138</v>
+        <v>0.09608312788931594</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.3946877458940956</v>
+        <v>0.551444014011951</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.1362093562185476</v>
+        <v>0.6058493913479748</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.3224157454746874</v>
+        <v>0.6813395586020439</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.336572164226224</v>
+        <v>0.1378882058058223</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.3591086700520183</v>
+        <v>0.8864876391114376</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.2473794555872655</v>
+        <v>0.7680960599720165</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.8453297675622129</v>
+        <v>0.9442829013610581</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.7507562617256298</v>
+        <v>0.9062765742942558</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.8244929327834657</v>
+        <v>0.7010983205578351</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.5811405442785772</v>
+        <v>0.5706289441096729</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.3992715629418283</v>
+        <v>0.3070467643749022</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.6331795915326774</v>
+        <v>0.4037714665551194</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.7690680052528691</v>
+        <v>0.8307688361911428</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.6655419188330493</v>
+        <v>0.3022514595520215</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.6196375190894849</v>
+        <v>0.9925392189991987</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.5522485992470059</v>
+        <v>0.2766453681152684</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.7040422374968767</v>
+        <v>0.6498605261331958</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.2951354786418094</v>
+        <v>0.6439135563396443</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.7824669231147907</v>
+        <v>0.3497922777382584</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.3027302964065686</v>
+        <v>0.2323922676292476</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.3455169613472076</v>
+        <v>0.902392870411009</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.7750542584999751</v>
+        <v>0.261838160588623</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.528785954633554</v>
+        <v>0.6026895456589938</v>
       </c>
     </row>
     <row r="19">
@@ -6114,307 +6114,307 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.212591303477375</v>
+        <v>-6.003224033450598</v>
       </c>
       <c r="C19" t="n">
-        <v>1.100379577245962</v>
+        <v>-1.932577966328668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8448106626533729</v>
+        <v>2.182761948301829</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.064416842025249</v>
+        <v>-2.246404445106885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2270278182654609</v>
+        <v>-0.6101503473126468</v>
       </c>
       <c r="G19" t="n">
-        <v>2.004105819804631</v>
+        <v>-0.09125994021727285</v>
       </c>
       <c r="H19" t="n">
-        <v>1.804879890767655</v>
+        <v>-0.07231444398749112</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.03338639470792996</v>
+        <v>-0.6332832522865997</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8087766726211367</v>
+        <v>-0.0828498608604547</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5179565608837715</v>
+        <v>-0.08834654068097078</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.417055776419464</v>
+        <v>-0.6437880132432373</v>
       </c>
       <c r="M19" t="n">
-        <v>4.998862115897338</v>
+        <v>2.508925011133757</v>
       </c>
       <c r="N19" t="n">
-        <v>6.008607433211624</v>
+        <v>2.20273082329986</v>
       </c>
       <c r="O19" t="n">
-        <v>3.80531918068806</v>
+        <v>2.3978439821721</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44596107487557</v>
+        <v>5.778231531470424</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.894075222140587</v>
+        <v>2.189364670887223</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.3418697286214736</v>
+        <v>-1.551003763664069</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8662583404290157</v>
+        <v>-0.4222311618378356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.106838751878289</v>
+        <v>0.9300725616615906</v>
       </c>
       <c r="U19" t="n">
-        <v>2.045633997048578</v>
+        <v>0.3709434177575548</v>
       </c>
       <c r="V19" t="n">
-        <v>4.075566235737309</v>
+        <v>-0.08763809394185984</v>
       </c>
       <c r="W19" t="n">
-        <v>3.353410714485909</v>
+        <v>1.807081909718465</v>
       </c>
       <c r="X19" t="n">
-        <v>2.192471845106479</v>
+        <v>3.121359602127694</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.939057025789157</v>
+        <v>3.52421409732943</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.78621814871916</v>
+        <v>0.4879218685752496</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.809195556485505</v>
+        <v>1.151343226991459</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.647795065258552</v>
+        <v>2.195945918574134</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.082219901564754</v>
+        <v>2.718471424197235</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.762436202836455</v>
+        <v>0.3776868683177071</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.738727427916206</v>
+        <v>1.134751852567287</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.75073976294769</v>
+        <v>0.1653758138511376</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.9474243500225872</v>
+        <v>0.9439576111629153</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.4502857294558301</v>
+        <v>0.5958640203760562</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.4937511573546401</v>
+        <v>0.6056484277185914</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.3169817917384998</v>
+        <v>0.4901494281860367</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.3642981531297846</v>
+        <v>0.7389183613952343</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.2187186060512585</v>
+        <v>0.6284614178276307</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.8000696357575529</v>
+        <v>0.08254109404344279</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.2949452221475775</v>
+        <v>0.7470080473006721</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.5762005340088943</v>
+        <v>0.9617595311359631</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.02640110083738345</v>
+        <v>0.4438628168587129</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.1825524697408982</v>
+        <v>0.3617061132763641</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.664931464772109</v>
+        <v>0.3153871227708085</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4491779664935301</v>
+        <v>0.6116603968108663</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.3628901907097455</v>
+        <v>0.953286330528769</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.01706996329180777</v>
+        <v>0.4813798106233105</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.8432572101616366</v>
+        <v>0.1904075179787197</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.6255767810266546</v>
+        <v>0.9370977658894245</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.6973819041465804</v>
+        <v>0.5954352885415936</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.90735253249124</v>
+        <v>0.9146483257633254</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.2159189158745495</v>
+        <v>0.5421575231705347</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.1623965038501267</v>
+        <v>0.7416136999258989</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.1810708512287844</v>
+        <v>0.4466799322881202</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.2763314034069224</v>
+        <v>0.5677182293587549</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.0001789119134929518</v>
+        <v>0.9199768796501487</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.9729521526283188</v>
+        <v>0.1869804385722209</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.6076725006748225</v>
+        <v>0.4705702977740257</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.1523507099803032</v>
+        <v>0.2059488892271749</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.01775171590158753</v>
+        <v>0.6655336286938246</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.06857991263120744</v>
+        <v>0.01828856350024111</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.2034000159850989</v>
+        <v>0.3927003034864709</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.08466281986068069</v>
+        <v>0.4967456322888099</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.2191781490450347</v>
+        <v>0.4053753649990398</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.06065484222716311</v>
+        <v>0.006824523105420477</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.1136097164079513</v>
+        <v>0.9292359561141592</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.7258905340197898</v>
+        <v>0.5097245868117213</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.8795706576900406</v>
+        <v>0.5635721430600846</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.05777643007163014</v>
+        <v>0.5423095698242199</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.9257510236657828</v>
+        <v>0.4511403075627696</v>
       </c>
       <c r="BT19" t="n">
-        <v>0.1648760335107954</v>
+        <v>0.2612052622184399</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.9583687421721775</v>
+        <v>0.8920734379243016</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.2409285852747122</v>
+        <v>0.4379500007391781</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.9702935939803266</v>
+        <v>0.9484828415583234</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.7984462982362605</v>
+        <v>0.8424925959208843</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.8152827211510625</v>
+        <v>0.1322520732756989</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.9842914597202836</v>
+        <v>0.7004824664982211</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.2723873841517083</v>
+        <v>0.103396748566228</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.2770661171188934</v>
+        <v>0.5673323892493065</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.8674130395047852</v>
+        <v>0.3005040505078839</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.2268154138625856</v>
+        <v>0.5927454066760066</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.641106942891269</v>
+        <v>0.443589592235999</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.9066758921894263</v>
+        <v>0.9669595308859167</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.6663416185242926</v>
+        <v>0.358361616196281</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.9791718721930506</v>
+        <v>0.7525465716136785</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.08898424284142836</v>
+        <v>0.496951118378722</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.4022505813218089</v>
+        <v>0.9740375369286345</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.511787020071095</v>
+        <v>0.6400828454618144</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.3617012971176646</v>
+        <v>0.57931199141269</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.6239154415831613</v>
+        <v>0.04879379296795616</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.06423458528813342</v>
+        <v>0.04801353719257595</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.1673743435137582</v>
+        <v>0.439358481322128</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.3083017580414606</v>
+        <v>0.5802255031596253</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.3711100718802237</v>
+        <v>0.7138284752336297</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.3338839972693086</v>
+        <v>0.896438720315359</v>
       </c>
       <c r="CS19" t="n">
-        <v>0.06554780143171368</v>
+        <v>0.6813122721865091</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.4856054081621776</v>
+        <v>0.9920050826432804</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.2293248400730905</v>
+        <v>0.8938327340992898</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.4143238845390682</v>
+        <v>0.2013120841339925</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.3681935302385982</v>
+        <v>0.8653538514540812</v>
       </c>
       <c r="CX19" t="n">
-        <v>0.7636744345074554</v>
+        <v>0.4418781055607965</v>
       </c>
     </row>
     <row r="20">
@@ -6422,307 +6422,307 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.17093585233255</v>
+        <v>-0.1434837094307935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4248362671601636</v>
+        <v>-0.4480750169715388</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5228375019382212</v>
+        <v>0.610163879991477</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.859673520986612</v>
+        <v>1.114460336924938</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1103045121452881</v>
+        <v>0.8079382730881477</v>
       </c>
       <c r="G20" t="n">
-        <v>1.212876478346358</v>
+        <v>0.817360620403381</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5249934322560355</v>
+        <v>-1.064321409016527</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.236340445000664</v>
+        <v>-0.3949863383306368</v>
       </c>
       <c r="J20" t="n">
-        <v>2.423902779189904</v>
+        <v>-0.8523271228441393</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.080566967349706</v>
+        <v>0.562488314695086</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.971178539849911</v>
+        <v>0.7352931538551619</v>
       </c>
       <c r="M20" t="n">
-        <v>2.730602344239692</v>
+        <v>1.585612805580297</v>
       </c>
       <c r="N20" t="n">
-        <v>4.996695876334054</v>
+        <v>2.874380976844457</v>
       </c>
       <c r="O20" t="n">
-        <v>1.790805633429469</v>
+        <v>4.679100191859708</v>
       </c>
       <c r="P20" t="n">
-        <v>1.590507650879245</v>
+        <v>5.495573499279312</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.9578776434036195</v>
+        <v>3.614059032081605</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6948392242708779</v>
+        <v>3.678528238352342</v>
       </c>
       <c r="S20" t="n">
-        <v>2.340681726327653</v>
+        <v>1.442028176890465</v>
       </c>
       <c r="T20" t="n">
-        <v>2.071628481341185</v>
+        <v>3.989811239475781</v>
       </c>
       <c r="U20" t="n">
-        <v>2.63413705233</v>
+        <v>2.156133463489154</v>
       </c>
       <c r="V20" t="n">
-        <v>1.278839184583187</v>
+        <v>4.923076658212442</v>
       </c>
       <c r="W20" t="n">
-        <v>2.791613698065414</v>
+        <v>2.648635126137615</v>
       </c>
       <c r="X20" t="n">
-        <v>5.12939590696064</v>
+        <v>0.01182300951319215</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.410943510621663</v>
+        <v>1.028432940239957</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.449840624146877</v>
+        <v>-0.4515836646551391</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.462013846474016</v>
+        <v>1.445507430550711</v>
       </c>
       <c r="AB20" t="n">
-        <v>5.424472256483094</v>
+        <v>3.145032842736373</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.404377077719069</v>
+        <v>4.47789529462347</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.577771707735869</v>
+        <v>2.382490623902163</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.5145447827225911</v>
+        <v>3.561542047138081</v>
       </c>
       <c r="AF20" t="n">
-        <v>-1.957164115793353</v>
+        <v>5.337162442445146</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.505178906092441</v>
+        <v>0.8038697620331599</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.629054159427713</v>
+        <v>0.1935252018458412</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.7850596834466632</v>
+        <v>0.4797893157478944</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.680919592840705</v>
+        <v>0.250375377041853</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.1669218057392814</v>
+        <v>0.2035482980915583</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.4845517864366141</v>
+        <v>0.7942877695644779</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.9666624372887467</v>
+        <v>0.3667011896544723</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.05427759902344031</v>
+        <v>0.530476555056789</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.3400930247426469</v>
+        <v>0.3788821310872688</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.15046261468033</v>
+        <v>0.467851679380565</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.6013578939533715</v>
+        <v>0.979521740937592</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.6637493453568613</v>
+        <v>0.5343258739837614</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8778772823234798</v>
+        <v>0.4140841300127388</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.8214687347964211</v>
+        <v>0.4400732869860861</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.2978556159786317</v>
+        <v>0.2103971037545884</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.8185260784633935</v>
+        <v>0.04199288491273712</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.7258149810688821</v>
+        <v>0.06474095927998624</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.7087963511854766</v>
+        <v>0.1055378246478532</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.3037264987756323</v>
+        <v>0.182586834651129</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.1896059041263629</v>
+        <v>0.5606953102802208</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.02447412002766458</v>
+        <v>0.9617605539533154</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.4900427640199684</v>
+        <v>0.6769744622317428</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.3807894330503189</v>
+        <v>0.8137837700448127</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.3088030148447104</v>
+        <v>0.1296561929869703</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.2967881836581863</v>
+        <v>0.7951326489465672</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.190662200270177</v>
+        <v>0.2366704156848429</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.7337813838397239</v>
+        <v>0.1156167224180349</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.9696553984080001</v>
+        <v>0.5950550583401836</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.2649168041005738</v>
+        <v>0.8072971956581885</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.350431457616725</v>
+        <v>0.6008930499380846</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.401721957556301</v>
+        <v>0.2149540610917964</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.1365747187693278</v>
+        <v>0.7863226899581973</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.511678129071798</v>
+        <v>0.1440959566695862</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.01636344911722298</v>
+        <v>0.2260239329705922</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.05221711510113813</v>
+        <v>0.2683809488935153</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.1176271895695279</v>
+        <v>0.7357520783589623</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.9237850742759517</v>
+        <v>0.321756710950807</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.2900860290522498</v>
+        <v>0.3382283316922305</v>
       </c>
       <c r="BT20" t="n">
-        <v>0.6797626258325122</v>
+        <v>0.04322708890414306</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.2324885890482095</v>
+        <v>0.7636448773108043</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.7546668902635976</v>
+        <v>0.0155014004114542</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.9211863088379829</v>
+        <v>0.7592395763105236</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.203464889675493</v>
+        <v>0.6143939414272457</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.2182281446835056</v>
+        <v>0.4591273890212668</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.2046109272587591</v>
+        <v>0.4234378989351811</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.1367652322270743</v>
+        <v>0.02731933470840064</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.2887340858812317</v>
+        <v>0.4179846073247292</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.4091371434714449</v>
+        <v>0.696085134734025</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.8842715657420321</v>
+        <v>0.443221366536526</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.4370818699533107</v>
+        <v>0.2414940454005332</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.7262322428060429</v>
+        <v>0.9966753005060676</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.09282828291901757</v>
+        <v>0.7744569294275342</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.7702464655269773</v>
+        <v>0.3687028401425215</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.9553369333986611</v>
+        <v>0.383813850218066</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0221372773918701</v>
+        <v>0.3987952253388134</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.157326263857354</v>
+        <v>0.5795544342007313</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.4293477305392571</v>
+        <v>0.9213724792914113</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.8360894734247392</v>
+        <v>0.5291654047099963</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.5967376503534049</v>
+        <v>0.7171013856869579</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.5315302476096366</v>
+        <v>0.4817836079984917</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.7976104810747565</v>
+        <v>0.4424392107133394</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.428847468776908</v>
+        <v>0.8939928761760418</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.4708162892487814</v>
+        <v>0.4734196319723549</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.9627708298132137</v>
+        <v>0.3275945233984021</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.6834407999022404</v>
+        <v>0.6138908504974919</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.08359736267387741</v>
+        <v>0.7550261857145854</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.7969905120658526</v>
+        <v>0.734767831217192</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.2868472414531146</v>
+        <v>0.3864230104618148</v>
       </c>
       <c r="CX20" t="n">
-        <v>0.1408741050455324</v>
+        <v>0.385906482941315</v>
       </c>
     </row>
     <row r="21">
@@ -6730,307 +6730,307 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.942443339347546</v>
+        <v>-1.490575435446155</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5362241667387047</v>
+        <v>0.8820100093809358</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.552047194846936</v>
+        <v>0.09167330412561285</v>
       </c>
       <c r="E21" t="n">
-        <v>1.13183940407002</v>
+        <v>-0.06807055953369921</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4288093072988873</v>
+        <v>-0.04957118879365757</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.839628228949329</v>
+        <v>0.6142856956250367</v>
       </c>
       <c r="H21" t="n">
-        <v>0.112021674802976</v>
+        <v>0.4455116884503093</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.475590359975233</v>
+        <v>-0.944666775366591</v>
       </c>
       <c r="J21" t="n">
-        <v>1.301447710696433</v>
+        <v>-0.2020597258815577</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2686124967214191</v>
+        <v>-0.05609755798568508</v>
       </c>
       <c r="L21" t="n">
-        <v>1.000842578760277</v>
+        <v>-0.2384549582944956</v>
       </c>
       <c r="M21" t="n">
-        <v>1.689262182904729</v>
+        <v>3.663548818829859</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.3724283695098715</v>
+        <v>5.050669847980495</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.8202088614000831</v>
+        <v>3.532022889405007</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.256492650602865</v>
+        <v>2.976772363623144</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.863437596392162</v>
+        <v>1.125642261063899</v>
       </c>
       <c r="R21" t="n">
-        <v>1.100160298504631</v>
+        <v>1.141997599626274</v>
       </c>
       <c r="S21" t="n">
-        <v>1.85706999338711</v>
+        <v>2.651996193893716</v>
       </c>
       <c r="T21" t="n">
-        <v>1.355142066169569</v>
+        <v>3.607951353330737</v>
       </c>
       <c r="U21" t="n">
-        <v>1.946837623431654</v>
+        <v>4.516432519391341</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.2295486646215685</v>
+        <v>4.280841259752749</v>
       </c>
       <c r="W21" t="n">
-        <v>2.767418690908916</v>
+        <v>1.347439816889711</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1212966378637222</v>
+        <v>0.6511296506942149</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.711717931555459</v>
+        <v>2.492016008716956</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.7376506758044423</v>
+        <v>0.06885609365841083</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.966894243121804</v>
+        <v>3.667722674301167</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.781576718686714</v>
+        <v>2.00402626218079</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.864053777624656</v>
+        <v>3.993893874051671</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.791076534904871</v>
+        <v>3.993998478762064</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.662977255198363</v>
+        <v>-0.01979073043625523</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.644583913450663</v>
+        <v>2.920925551979433</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.6149365953844126</v>
+        <v>0.5142766213806911</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.4581743747603153</v>
+        <v>0.8403922703432973</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.4050298870309226</v>
+        <v>0.3677404246139544</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.1135204798426733</v>
+        <v>0.6639891094901165</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.2065829795363964</v>
+        <v>0.592163900076648</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.6532642931574983</v>
+        <v>0.9360604391572246</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.9341564218396858</v>
+        <v>0.847774705563632</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.3523434529834001</v>
+        <v>0.89372389623948</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.1000011384552371</v>
+        <v>0.6568920273822169</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.1730429880260606</v>
+        <v>0.9928336589089243</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.9973933889486994</v>
+        <v>0.06246992428579712</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.2043868584186562</v>
+        <v>0.6516199393907925</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8779860497815178</v>
+        <v>0.4543905633135512</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.5609607584914346</v>
+        <v>0.8814764595630198</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.9074648528510095</v>
+        <v>0.8592529938689571</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.4764392281272318</v>
+        <v>0.3796382683888477</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.2688615476774159</v>
+        <v>0.1389769274858014</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.4828132497694193</v>
+        <v>0.02757827822189862</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2919830993305996</v>
+        <v>0.2026761137501273</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.1721461661998748</v>
+        <v>0.2595118798257536</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.1654595478651549</v>
+        <v>0.2068694237546465</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.636904988362005</v>
+        <v>0.9269395879851323</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.4468312438027812</v>
+        <v>0.9422970491914764</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.8841645921092796</v>
+        <v>0.03900472906739172</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.9169352149155585</v>
+        <v>0.02918159585177516</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.6634802508811006</v>
+        <v>0.2765196941834771</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.5462440138892123</v>
+        <v>0.3135005371806633</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.2341852785377472</v>
+        <v>0.1621877842797684</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.2321106662635557</v>
+        <v>0.01902964575464883</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.8369067706818407</v>
+        <v>0.002127618716455726</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.5711602720323942</v>
+        <v>0.3317583622441415</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.88060649901545</v>
+        <v>0.3472499599771109</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.9330838640544974</v>
+        <v>0.584640723878652</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.6619794691353025</v>
+        <v>0.1618346231528346</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.3010463052755314</v>
+        <v>0.2926651095675793</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.5164444707126595</v>
+        <v>0.3631714219185158</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.1144209761445742</v>
+        <v>0.1563090222267205</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.5433245014530365</v>
+        <v>0.960663061888232</v>
       </c>
       <c r="BT21" t="n">
-        <v>0.631240631320069</v>
+        <v>0.1715607284551268</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.4360964784953982</v>
+        <v>0.5910086483883557</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.7445797985280495</v>
+        <v>0.3739897434677283</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.726271446692309</v>
+        <v>0.9252162288269076</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.6007642370403069</v>
+        <v>0.1439711187901974</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.9976533494051123</v>
+        <v>0.1678407049061393</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.9973008466096308</v>
+        <v>0.8796179733941798</v>
       </c>
       <c r="CA21" t="n">
-        <v>0.0430154696240187</v>
+        <v>0.3310408996391829</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.2311993014467013</v>
+        <v>0.449155281129973</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.202636812347499</v>
+        <v>0.2514997928196583</v>
       </c>
       <c r="CD21" t="n">
-        <v>0.9302778715721957</v>
+        <v>0.3130224894336673</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.66869928121885</v>
+        <v>0.3828156960528365</v>
       </c>
       <c r="CF21" t="n">
-        <v>0.3588558004197555</v>
+        <v>0.6383144357121023</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.1419985660989661</v>
+        <v>0.8179907646274945</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.5269943488422892</v>
+        <v>0.2632654745041217</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.3088856419132904</v>
+        <v>0.03568958326943639</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.8703862971266455</v>
+        <v>0.1730950663939416</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.9855030801586651</v>
+        <v>0.1623423414463171</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.9909340109085127</v>
+        <v>0.5682543352504955</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.1891047038230538</v>
+        <v>0.3891718818256553</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.5855615470891128</v>
+        <v>0.8883787299248249</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.1841877719886479</v>
+        <v>0.8230188255297759</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.9181727372064373</v>
+        <v>0.35724775379913</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.1799996033593628</v>
+        <v>0.1358533572243332</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.4200019957226963</v>
+        <v>0.9425617000994923</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.6605781877951301</v>
+        <v>0.2214357274658261</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.3322826565725741</v>
+        <v>0.4207296467578201</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.1927837999805962</v>
+        <v>0.02382820633006433</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.3801618759328463</v>
+        <v>0.01223912386493164</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.9254675814581164</v>
+        <v>0.9830816272410571</v>
       </c>
       <c r="CX21" t="n">
-        <v>0.4353302532046329</v>
+        <v>0.9258122903039904</v>
       </c>
     </row>
   </sheetData>
